--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="Weapon" sheetId="8" r:id="rId8"/>
     <sheet name="Bomb" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="177">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -51,15 +51,9 @@
     <t>Level1</t>
   </si>
   <si>
-    <t>"Task1_1","Task1_2","Task1_3"</t>
-  </si>
-  <si>
     <t>Level2</t>
   </si>
   <si>
-    <t>"Task2_1","Task2_2","Task2_3","Task2_4"</t>
-  </si>
-  <si>
     <t>isLocked</t>
   </si>
   <si>
@@ -75,6 +69,9 @@
     <t>Info</t>
   </si>
   <si>
+    <t>isCleared</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
@@ -87,10 +84,7 @@
     <t>Task1-3</t>
   </si>
   <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>ui-3</t>
   </si>
   <si>
     <t>Task1_2</t>
@@ -99,7 +93,7 @@
     <t>Task1-2</t>
   </si>
   <si>
-    <t>1-2</t>
+    <t>ui-2</t>
   </si>
   <si>
     <t>Task1_1</t>
@@ -108,7 +102,7 @@
     <t>Task1-1</t>
   </si>
   <si>
-    <t>1-1</t>
+    <t>ui-1</t>
   </si>
   <si>
     <t>Task_1_1</t>
@@ -120,7 +114,7 @@
     <t>Task2-1</t>
   </si>
   <si>
-    <t>2-1</t>
+    <t>ui-9</t>
   </si>
   <si>
     <t>Task2_2</t>
@@ -129,7 +123,7 @@
     <t>Task2-2</t>
   </si>
   <si>
-    <t>2-2</t>
+    <t>ui-10</t>
   </si>
   <si>
     <t>Task2_3</t>
@@ -138,7 +132,7 @@
     <t>Task2-3</t>
   </si>
   <si>
-    <t>2-3</t>
+    <t>ui-11</t>
   </si>
   <si>
     <t>Task2_4</t>
@@ -147,7 +141,7 @@
     <t>Task2-4</t>
   </si>
   <si>
-    <t>2-4</t>
+    <t>ui-12</t>
   </si>
   <si>
     <t>ID</t>
@@ -186,6 +180,27 @@
     <t>tufei-1</t>
   </si>
   <si>
+    <t>EnemyAttr_1_2</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_3</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_4</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_5</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_6</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_7</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_8</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -297,19 +312,6 @@
     <t>AK47</t>
   </si>
   <si>
-    <t>AK47
-assault rifle</t>
-  </si>
-  <si>
-    <t>ak47</t>
-  </si>
-  <si>
-    <t>Gun</t>
-  </si>
-  <si>
-    <t>safdsgfdg</t>
-  </si>
-  <si>
     <t>Bomb</t>
   </si>
   <si>
@@ -325,44 +327,400 @@
     <t>Bomb_236755f9f77d474d9cc698abccce557c</t>
   </si>
   <si>
-    <t>EnemyAttr_1_2</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_3</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_4</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_5</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_6</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_7</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_8</t>
+    <r>
+      <t>Task1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Task1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Task1_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1_7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1_8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ui-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ui-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ui-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ui-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ui-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Task2_5</t>
+  </si>
+  <si>
+    <t>Task2-5</t>
+  </si>
+  <si>
+    <t>ui-13</t>
+  </si>
+  <si>
+    <t>Task2_6</t>
+  </si>
+  <si>
+    <t>Task2-6</t>
+  </si>
+  <si>
+    <t>ui-14</t>
+  </si>
+  <si>
+    <t>Task2_7</t>
+  </si>
+  <si>
+    <t>Task2-7</t>
+  </si>
+  <si>
+    <t>ui-15</t>
+  </si>
+  <si>
+    <t>Task2_8</t>
+  </si>
+  <si>
+    <t>Task2-8</t>
+  </si>
+  <si>
+    <t>ui-16</t>
+  </si>
+  <si>
+    <t>Task_1_2</t>
+  </si>
+  <si>
+    <t>Task_1_3</t>
+  </si>
+  <si>
+    <t>Task_1_4</t>
+  </si>
+  <si>
+    <t>Task_1_5</t>
+  </si>
+  <si>
+    <t>Task_1_6</t>
+  </si>
+  <si>
+    <t>Task_1_7</t>
+  </si>
+  <si>
+    <t>Task_1_8</t>
+  </si>
+  <si>
+    <t>Task_1_9</t>
+  </si>
+  <si>
+    <t>Task_1_10</t>
+  </si>
+  <si>
+    <t>Task_1_11</t>
+  </si>
+  <si>
+    <t>Task_1_12</t>
+  </si>
+  <si>
+    <t>Task_1_13</t>
+  </si>
+  <si>
+    <t>Task_1_14</t>
+  </si>
+  <si>
+    <t>Task_1_15</t>
+  </si>
+  <si>
+    <t>Task_1_16</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_2"</t>
+  </si>
+  <si>
+    <t>lv1-2</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_3"</t>
+  </si>
+  <si>
+    <t>lv1-3</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_4"</t>
+  </si>
+  <si>
+    <t>lv1-4</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_5"</t>
+  </si>
+  <si>
+    <t>lv1-5</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_6"</t>
+  </si>
+  <si>
+    <t>lv1-6</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_7"</t>
+  </si>
+  <si>
+    <t>lv1-7</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_8"</t>
+  </si>
+  <si>
+    <t>lv1-8</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_9"</t>
+  </si>
+  <si>
+    <t>lv1-9</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_10"</t>
+  </si>
+  <si>
+    <t>lv1-10</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_11"</t>
+  </si>
+  <si>
+    <t>lv1-11</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_12"</t>
+  </si>
+  <si>
+    <t>lv1-12</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_13"</t>
+  </si>
+  <si>
+    <t>lv1-13</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_14"</t>
+  </si>
+  <si>
+    <t>lv1-14</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_15"</t>
+  </si>
+  <si>
+    <t>lv1-15</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_16"</t>
+  </si>
+  <si>
+    <t>lv1-16</t>
+  </si>
+  <si>
+    <t>"Task1_1","Task1_2","Task1_3","Task1_4","Task1_5","Task1_6","Task1_7","Task1_8"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Task2_1","Task2_2","Task2_3","Task2_4","Task2_5","Task2_6","Task2_7","Task2_8"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>G36E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -387,7 +745,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,13 +1049,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -737,7 +1097,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -745,67 +1105,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B7:B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -817,152 +1182,384 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
+        <v>125</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
+        <v>126</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>39</v>
+        <v>127</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -970,17 +1567,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,31 +1582,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1035,13 +1629,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1049,7 +1643,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1072,27 +1666,25 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <f>B$3</f>
         <v>0</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <f>D3*1.1</f>
-        <v>55.000000000000007</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1106,20 +1698,18 @@
       <c r="H4">
         <v>31</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="J4" t="str">
-        <f>J$3</f>
-        <v>tufei-1</v>
+      <c r="J4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B10" si="0">B$3</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -1140,20 +1730,18 @@
       <c r="H5">
         <v>32</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="J5" t="str">
-        <f t="shared" ref="J5:J10" si="1">J$3</f>
-        <v>tufei-1</v>
+      <c r="J5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6">
@@ -1174,21 +1762,18 @@
       <c r="H6">
         <v>33</v>
       </c>
-      <c r="I6" s="1">
-        <f>I5*1.05</f>
-        <v>52.5</v>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v>tufei-1</v>
+      <c r="I6">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -1209,21 +1794,18 @@
       <c r="H7">
         <v>34</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I10" si="2">I6*1.05</f>
-        <v>55.125</v>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v>tufei-1</v>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8">
@@ -1244,21 +1826,18 @@
       <c r="H8">
         <v>35</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
-        <v>57.881250000000001</v>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v>tufei-1</v>
+      <c r="I8">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9">
@@ -1279,21 +1858,18 @@
       <c r="H9">
         <v>36</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
-        <v>60.775312500000005</v>
-      </c>
-      <c r="J9" t="str">
-        <f t="shared" si="1"/>
-        <v>tufei-1</v>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10">
@@ -1314,19 +1890,16 @@
       <c r="H10">
         <v>37</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
-        <v>63.814078125000009</v>
-      </c>
-      <c r="J10" t="str">
-        <f t="shared" si="1"/>
-        <v>tufei-1</v>
+      <c r="I10">
+        <v>64</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1334,9 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1353,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1385,18 +1956,18 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1410,13 +1981,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1429,7 +2000,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1452,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,31 +2037,33 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1508,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1531,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1540,7 +2113,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1551,10 +2124,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1569,11 +2142,356 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1598,19 +2516,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1635,44 +2553,47 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
@@ -1682,34 +2603,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,10 +2659,10 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -1749,7 +2670,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1758,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1767,16 +2688,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1784,41 +2705,111 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
+        <v>174</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1843,19 +2834,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,19 +2871,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1900,26 +2891,26 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="7"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="EnemyAttr" sheetId="3" r:id="rId3"/>
-    <sheet name="WaveItem" sheetId="4" r:id="rId4"/>
-    <sheet name="Wave" sheetId="5" r:id="rId5"/>
-    <sheet name="TaskInfo" sheetId="6" r:id="rId6"/>
+    <sheet name="TaskInfo" sheetId="6" r:id="rId3"/>
+    <sheet name="EnemyAttr" sheetId="3" r:id="rId4"/>
+    <sheet name="WaveItem" sheetId="4" r:id="rId5"/>
+    <sheet name="Wave" sheetId="5" r:id="rId6"/>
     <sheet name="Medical" sheetId="7" r:id="rId7"/>
     <sheet name="Weapon" sheetId="8" r:id="rId8"/>
     <sheet name="Bomb" sheetId="9" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -51,9 +51,15 @@
     <t>Level1</t>
   </si>
   <si>
+    <t>"Task1_1","Task1_2","Task1_3","Task1_4","Task1_5","Task1_6","Task1_7","Task1_8"</t>
+  </si>
+  <si>
     <t>Level2</t>
   </si>
   <si>
+    <t>"Task2_1","Task2_2","Task2_3","Task2_4","Task2_5","Task2_6","Task2_7","Task2_8"</t>
+  </si>
+  <si>
     <t>isLocked</t>
   </si>
   <si>
@@ -78,6 +84,30 @@
     <t>TaskInfo</t>
   </si>
   <si>
+    <t>Task1_1</t>
+  </si>
+  <si>
+    <t>Task1-1</t>
+  </si>
+  <si>
+    <t>ui-1</t>
+  </si>
+  <si>
+    <t>Task_1_3</t>
+  </si>
+  <si>
+    <t>Task1_2</t>
+  </si>
+  <si>
+    <t>Task1-2</t>
+  </si>
+  <si>
+    <t>ui-2</t>
+  </si>
+  <si>
+    <t>Task_1_2</t>
+  </si>
+  <si>
     <t>Task1_3</t>
   </si>
   <si>
@@ -87,27 +117,54 @@
     <t>ui-3</t>
   </si>
   <si>
-    <t>Task1_2</t>
-  </si>
-  <si>
-    <t>Task1-2</t>
-  </si>
-  <si>
-    <t>ui-2</t>
-  </si>
-  <si>
-    <t>Task1_1</t>
-  </si>
-  <si>
-    <t>Task1-1</t>
-  </si>
-  <si>
-    <t>ui-1</t>
-  </si>
-  <si>
     <t>Task_1_1</t>
   </si>
   <si>
+    <t>Task1_4</t>
+  </si>
+  <si>
+    <t>ui-4</t>
+  </si>
+  <si>
+    <t>Task_1_4</t>
+  </si>
+  <si>
+    <t>Task1_5</t>
+  </si>
+  <si>
+    <t>ui-5</t>
+  </si>
+  <si>
+    <t>Task_1_5</t>
+  </si>
+  <si>
+    <t>Task1_6</t>
+  </si>
+  <si>
+    <t>ui-6</t>
+  </si>
+  <si>
+    <t>Task_1_6</t>
+  </si>
+  <si>
+    <t>Task1_7</t>
+  </si>
+  <si>
+    <t>ui-7</t>
+  </si>
+  <si>
+    <t>Task_1_7</t>
+  </si>
+  <si>
+    <t>Task1_8</t>
+  </si>
+  <si>
+    <t>ui-8</t>
+  </si>
+  <si>
+    <t>Task_1_8</t>
+  </si>
+  <si>
     <t>Task2_1</t>
   </si>
   <si>
@@ -117,6 +174,9 @@
     <t>ui-9</t>
   </si>
   <si>
+    <t>Task_1_9</t>
+  </si>
+  <si>
     <t>Task2_2</t>
   </si>
   <si>
@@ -126,6 +186,9 @@
     <t>ui-10</t>
   </si>
   <si>
+    <t>Task_1_10</t>
+  </si>
+  <si>
     <t>Task2_3</t>
   </si>
   <si>
@@ -135,6 +198,9 @@
     <t>ui-11</t>
   </si>
   <si>
+    <t>Task_1_11</t>
+  </si>
+  <si>
     <t>Task2_4</t>
   </si>
   <si>
@@ -144,6 +210,57 @@
     <t>ui-12</t>
   </si>
   <si>
+    <t>Task_1_12</t>
+  </si>
+  <si>
+    <t>Task2_5</t>
+  </si>
+  <si>
+    <t>Task2-5</t>
+  </si>
+  <si>
+    <t>ui-13</t>
+  </si>
+  <si>
+    <t>Task_1_13</t>
+  </si>
+  <si>
+    <t>Task2_6</t>
+  </si>
+  <si>
+    <t>Task2-6</t>
+  </si>
+  <si>
+    <t>ui-14</t>
+  </si>
+  <si>
+    <t>Task_1_14</t>
+  </si>
+  <si>
+    <t>Task2_7</t>
+  </si>
+  <si>
+    <t>Task2-7</t>
+  </si>
+  <si>
+    <t>ui-15</t>
+  </si>
+  <si>
+    <t>Task_1_15</t>
+  </si>
+  <si>
+    <t>Task2_8</t>
+  </si>
+  <si>
+    <t>Task2-8</t>
+  </si>
+  <si>
+    <t>ui-16</t>
+  </si>
+  <si>
+    <t>Task_1_16</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -264,6 +381,96 @@
     <t>lv1-1</t>
   </si>
   <si>
+    <t>"Task_1_1_Wave_2"</t>
+  </si>
+  <si>
+    <t>lv1-2</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_3"</t>
+  </si>
+  <si>
+    <t>lv1-3</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_4"</t>
+  </si>
+  <si>
+    <t>lv1-4</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_5"</t>
+  </si>
+  <si>
+    <t>lv1-5</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_6"</t>
+  </si>
+  <si>
+    <t>lv1-6</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_7"</t>
+  </si>
+  <si>
+    <t>lv1-7</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_8"</t>
+  </si>
+  <si>
+    <t>lv1-8</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_9"</t>
+  </si>
+  <si>
+    <t>lv1-9</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_10"</t>
+  </si>
+  <si>
+    <t>lv1-10</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_11"</t>
+  </si>
+  <si>
+    <t>lv1-11</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_12"</t>
+  </si>
+  <si>
+    <t>lv1-12</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_13"</t>
+  </si>
+  <si>
+    <t>lv1-13</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_14"</t>
+  </si>
+  <si>
+    <t>lv1-14</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_15"</t>
+  </si>
+  <si>
+    <t>lv1-15</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_16"</t>
+  </si>
+  <si>
+    <t>lv1-16</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -309,9 +516,30 @@
     <t>isEquipment</t>
   </si>
   <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>Q-3</t>
+  </si>
+  <si>
+    <t>G36E</t>
+  </si>
+  <si>
+    <t>Q-1</t>
+  </si>
+  <si>
     <t>AK47</t>
   </si>
   <si>
+    <t>Q-2</t>
+  </si>
+  <si>
+    <t>M4A1</t>
+  </si>
+  <si>
+    <t>Q-4</t>
+  </si>
+  <si>
     <t>Bomb</t>
   </si>
   <si>
@@ -328,7 +556,7 @@
   </si>
   <si>
     <r>
-      <t>Task1_</t>
+      <t>Task_1_</t>
     </r>
     <r>
       <rPr>
@@ -336,13 +564,13 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>4</t>
+      <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Task1_</t>
+      <t>Task_1_</t>
     </r>
     <r>
       <rPr>
@@ -350,366 +578,19 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t>3</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Task1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task1_7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task1_8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ui-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ui-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ui-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ui-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ui-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Task2_5</t>
-  </si>
-  <si>
-    <t>Task2-5</t>
-  </si>
-  <si>
-    <t>ui-13</t>
-  </si>
-  <si>
-    <t>Task2_6</t>
-  </si>
-  <si>
-    <t>Task2-6</t>
-  </si>
-  <si>
-    <t>ui-14</t>
-  </si>
-  <si>
-    <t>Task2_7</t>
-  </si>
-  <si>
-    <t>Task2-7</t>
-  </si>
-  <si>
-    <t>ui-15</t>
-  </si>
-  <si>
-    <t>Task2_8</t>
-  </si>
-  <si>
-    <t>Task2-8</t>
-  </si>
-  <si>
-    <t>ui-16</t>
-  </si>
-  <si>
-    <t>Task_1_2</t>
-  </si>
-  <si>
-    <t>Task_1_3</t>
-  </si>
-  <si>
-    <t>Task_1_4</t>
-  </si>
-  <si>
-    <t>Task_1_5</t>
-  </si>
-  <si>
-    <t>Task_1_6</t>
-  </si>
-  <si>
-    <t>Task_1_7</t>
-  </si>
-  <si>
-    <t>Task_1_8</t>
-  </si>
-  <si>
-    <t>Task_1_9</t>
-  </si>
-  <si>
-    <t>Task_1_10</t>
-  </si>
-  <si>
-    <t>Task_1_11</t>
-  </si>
-  <si>
-    <t>Task_1_12</t>
-  </si>
-  <si>
-    <t>Task_1_13</t>
-  </si>
-  <si>
-    <t>Task_1_14</t>
-  </si>
-  <si>
-    <t>Task_1_15</t>
-  </si>
-  <si>
-    <t>Task_1_16</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_2"</t>
-  </si>
-  <si>
-    <t>lv1-2</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_3"</t>
-  </si>
-  <si>
-    <t>lv1-3</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_4"</t>
-  </si>
-  <si>
-    <t>lv1-4</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_5"</t>
-  </si>
-  <si>
-    <t>lv1-5</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_6"</t>
-  </si>
-  <si>
-    <t>lv1-6</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_7"</t>
-  </si>
-  <si>
-    <t>lv1-7</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_8"</t>
-  </si>
-  <si>
-    <t>lv1-8</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_9"</t>
-  </si>
-  <si>
-    <t>lv1-9</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_10"</t>
-  </si>
-  <si>
-    <t>lv1-10</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_11"</t>
-  </si>
-  <si>
-    <t>lv1-11</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_12"</t>
-  </si>
-  <si>
-    <t>lv1-12</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_13"</t>
-  </si>
-  <si>
-    <t>lv1-13</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_14"</t>
-  </si>
-  <si>
-    <t>lv1-14</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_15"</t>
-  </si>
-  <si>
-    <t>lv1-15</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_16"</t>
-  </si>
-  <si>
-    <t>lv1-16</t>
-  </si>
-  <si>
-    <t>"Task1_1","Task1_2","Task1_3","Task1_4","Task1_5","Task1_6","Task1_7","Task1_8"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Task2_1","Task2_2","Task2_3","Task2_4","Task2_5","Task2_6","Task2_7","Task2_8"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G36E</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M4A1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -745,7 +626,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1049,15 +930,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1097,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1105,20 +984,20 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1127,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B7:B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1017,7 @@
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1182,30 +1061,30 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>124</v>
+      <c r="F3" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1213,22 +1092,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1236,137 +1115,137 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>27</v>
+      <c r="F5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>102</v>
+      <c r="A7" t="s">
+        <v>35</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
+      <c r="A9" t="s">
+        <v>41</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
+      <c r="A10" t="s">
+        <v>44</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1374,22 +1253,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -1397,22 +1276,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1420,22 +1299,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -1443,22 +1322,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1466,22 +1345,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1489,22 +1368,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1512,22 +1391,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1535,35 +1414,474 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="E18">
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>93</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7">
+        <v>94</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>98</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>99</v>
+      </c>
+      <c r="E12">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>103</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18">
+        <v>115</v>
+      </c>
+      <c r="D18">
+        <v>105</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -1582,31 +1900,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1643,7 +1961,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1670,12 +1988,12 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1702,12 +2020,12 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1734,12 +2052,12 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1766,12 +2084,12 @@
         <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1798,12 +2116,12 @@
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1830,12 +2148,12 @@
         <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1862,12 +2180,12 @@
         <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1894,16 +2212,16 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1924,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1956,18 +2274,18 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -1981,13 +2299,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2000,12 +2318,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2023,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,461 +2355,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>90</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4">
-        <v>101</v>
-      </c>
-      <c r="D4">
-        <v>91</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5">
-        <v>102</v>
-      </c>
-      <c r="D5">
-        <v>92</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6">
-        <v>103</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7">
-        <v>104</v>
-      </c>
-      <c r="D7">
-        <v>94</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8">
-        <v>105</v>
-      </c>
-      <c r="D8">
-        <v>95</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9">
-        <v>106</v>
-      </c>
-      <c r="D9">
-        <v>96</v>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10">
-        <v>107</v>
-      </c>
-      <c r="D10">
-        <v>97</v>
-      </c>
-      <c r="E10">
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11">
-        <v>108</v>
-      </c>
-      <c r="D11">
-        <v>98</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12">
-        <v>109</v>
-      </c>
-      <c r="D12">
-        <v>99</v>
-      </c>
-      <c r="E12">
-        <v>29</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14">
-        <v>111</v>
-      </c>
-      <c r="D14">
-        <v>101</v>
-      </c>
-      <c r="E14">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C15">
-        <v>112</v>
-      </c>
-      <c r="D15">
-        <v>102</v>
-      </c>
-      <c r="E15">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16">
-        <v>113</v>
-      </c>
-      <c r="D16">
-        <v>103</v>
-      </c>
-      <c r="E16">
-        <v>33</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17">
-        <v>114</v>
-      </c>
-      <c r="D17">
-        <v>104</v>
-      </c>
-      <c r="E17">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18">
-        <v>115</v>
-      </c>
-      <c r="D18">
-        <v>105</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2516,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2553,26 +2432,26 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2581,19 +2460,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
@@ -2603,34 +2477,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="H1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="K1" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2659,10 +2533,10 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -2670,7 +2544,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2688,10 +2562,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2705,7 +2579,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2723,10 +2597,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2740,7 +2614,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -2758,10 +2632,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2775,7 +2649,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -2793,10 +2667,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2809,7 +2683,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2834,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,19 +2745,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2891,26 +2765,26 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>174</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
-    <sheet name="TaskInfo" sheetId="6" r:id="rId3"/>
-    <sheet name="EnemyAttr" sheetId="3" r:id="rId4"/>
-    <sheet name="WaveItem" sheetId="4" r:id="rId5"/>
-    <sheet name="Wave" sheetId="5" r:id="rId6"/>
+    <sheet name="TaskInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="EnemyAttr" sheetId="4" r:id="rId4"/>
+    <sheet name="WaveItem" sheetId="5" r:id="rId5"/>
+    <sheet name="Wave" sheetId="6" r:id="rId6"/>
     <sheet name="Medical" sheetId="7" r:id="rId7"/>
     <sheet name="Weapon" sheetId="8" r:id="rId8"/>
     <sheet name="Bomb" sheetId="9" r:id="rId9"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="162">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -93,33 +93,33 @@
     <t>ui-1</t>
   </si>
   <si>
+    <t>Task_1_1</t>
+  </si>
+  <si>
+    <t>Task1_2</t>
+  </si>
+  <si>
+    <t>Task1-2</t>
+  </si>
+  <si>
+    <t>ui-2</t>
+  </si>
+  <si>
+    <t>Task_1_2</t>
+  </si>
+  <si>
+    <t>Task1_3</t>
+  </si>
+  <si>
+    <t>Task1-3</t>
+  </si>
+  <si>
+    <t>ui-3</t>
+  </si>
+  <si>
     <t>Task_1_3</t>
   </si>
   <si>
-    <t>Task1_2</t>
-  </si>
-  <si>
-    <t>Task1-2</t>
-  </si>
-  <si>
-    <t>ui-2</t>
-  </si>
-  <si>
-    <t>Task_1_2</t>
-  </si>
-  <si>
-    <t>Task1_3</t>
-  </si>
-  <si>
-    <t>Task1-3</t>
-  </si>
-  <si>
-    <t>ui-3</t>
-  </si>
-  <si>
-    <t>Task_1_1</t>
-  </si>
-  <si>
     <t>Task1_4</t>
   </si>
   <si>
@@ -261,6 +261,81 @@
     <t>Task_1_16</t>
   </si>
   <si>
+    <t>Waves</t>
+  </si>
+  <si>
+    <t>PlayerHP</t>
+  </si>
+  <si>
+    <t>TotalTime</t>
+  </si>
+  <si>
+    <t>WaveInterval</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>SceneName</t>
+  </si>
+  <si>
+    <t>list_Wave</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>"Task_1_1_Wave_1"</t>
+  </si>
+  <si>
+    <t>lv1-1</t>
+  </si>
+  <si>
+    <t>lv1-2</t>
+  </si>
+  <si>
+    <t>lv1-3</t>
+  </si>
+  <si>
+    <t>lv1-4</t>
+  </si>
+  <si>
+    <t>lv1-5</t>
+  </si>
+  <si>
+    <t>lv1-6</t>
+  </si>
+  <si>
+    <t>lv1-7</t>
+  </si>
+  <si>
+    <t>lv1-8</t>
+  </si>
+  <si>
+    <t>lv1-9</t>
+  </si>
+  <si>
+    <t>lv1-10</t>
+  </si>
+  <si>
+    <t>lv1-11</t>
+  </si>
+  <si>
+    <t>lv1-12</t>
+  </si>
+  <si>
+    <t>lv1-13</t>
+  </si>
+  <si>
+    <t>lv1-14</t>
+  </si>
+  <si>
+    <t>lv1-15</t>
+  </si>
+  <si>
+    <t>lv1-16</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -288,9 +363,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>EnemyAttr_1_1</t>
   </si>
   <si>
@@ -354,123 +426,6 @@
     <t>"Task_1_1_Wave_1_Item_1","Task_1_1_Wave_1_Item_1_919df013861c47b29104e39a5b26e0a1"</t>
   </si>
   <si>
-    <t>Waves</t>
-  </si>
-  <si>
-    <t>PlayerHP</t>
-  </si>
-  <si>
-    <t>TotalTime</t>
-  </si>
-  <si>
-    <t>WaveInterval</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>SceneName</t>
-  </si>
-  <si>
-    <t>list_Wave</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_1"</t>
-  </si>
-  <si>
-    <t>lv1-1</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_2"</t>
-  </si>
-  <si>
-    <t>lv1-2</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_3"</t>
-  </si>
-  <si>
-    <t>lv1-3</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_4"</t>
-  </si>
-  <si>
-    <t>lv1-4</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_5"</t>
-  </si>
-  <si>
-    <t>lv1-5</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_6"</t>
-  </si>
-  <si>
-    <t>lv1-6</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_7"</t>
-  </si>
-  <si>
-    <t>lv1-7</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_8"</t>
-  </si>
-  <si>
-    <t>lv1-8</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_9"</t>
-  </si>
-  <si>
-    <t>lv1-9</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_10"</t>
-  </si>
-  <si>
-    <t>lv1-10</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_11"</t>
-  </si>
-  <si>
-    <t>lv1-11</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_12"</t>
-  </si>
-  <si>
-    <t>lv1-12</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_13"</t>
-  </si>
-  <si>
-    <t>lv1-13</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_14"</t>
-  </si>
-  <si>
-    <t>lv1-14</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_15"</t>
-  </si>
-  <si>
-    <t>lv1-15</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_16"</t>
-  </si>
-  <si>
-    <t>lv1-16</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -553,41 +508,13 @@
   </si>
   <si>
     <t>Bomb_236755f9f77d474d9cc698abccce557c</t>
-  </si>
-  <si>
-    <r>
-      <t>Task_1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Task_1_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -597,11 +524,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,9 +546,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -930,7 +851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -999,6 +922,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1006,9 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1083,8 +1005,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>177</v>
+      <c r="F3" t="s">
+        <v>23</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1129,8 +1051,8 @@
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>178</v>
+      <c r="F5" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1438,7 +1360,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1446,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,22 +1387,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1498,7 +1419,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1509,10 +1430,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1527,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,7 +1456,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>101</v>
@@ -1550,15 +1471,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>102</v>
@@ -1573,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1581,7 +1502,7 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>103</v>
@@ -1596,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>104</v>
@@ -1619,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1627,7 +1548,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>105</v>
@@ -1642,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>106</v>
@@ -1665,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1594,7 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>107</v>
@@ -1688,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1696,7 +1617,7 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>108</v>
@@ -1711,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,7 +1640,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C12">
         <v>109</v>
@@ -1734,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1742,7 +1663,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="C13">
         <v>110</v>
@@ -1757,7 +1678,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1765,7 +1686,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>111</v>
@@ -1780,7 +1701,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,7 +1709,7 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>112</v>
@@ -1803,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1811,7 +1732,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C16">
         <v>113</v>
@@ -1826,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>114</v>
@@ -1849,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1857,7 +1778,7 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>115</v>
@@ -1872,7 +1793,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1900,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1947,13 +1868,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1961,7 +1882,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1988,12 +1909,12 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2020,12 +1941,12 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2052,12 +1973,12 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2084,12 +2005,12 @@
         <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2116,12 +2037,12 @@
         <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2148,12 +2069,12 @@
         <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2180,12 +2101,12 @@
         <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2212,7 +2133,7 @@
         <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2242,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,13 +2200,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -2299,13 +2220,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2341,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2355,18 +2276,18 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2395,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,19 +2353,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2477,34 +2398,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2544,7 +2465,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2562,10 +2483,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2579,7 +2500,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2597,10 +2518,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2614,7 +2535,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -2632,10 +2553,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2649,7 +2570,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -2667,10 +2588,10 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2708,19 +2629,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2745,19 +2666,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2765,19 +2686,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>0</v>

--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="585" windowWidth="23415" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
     <sheet name="TaskInfo" sheetId="3" r:id="rId3"/>
-    <sheet name="EnemyAttr" sheetId="4" r:id="rId4"/>
+    <sheet name="Wave" sheetId="6" r:id="rId4"/>
     <sheet name="WaveItem" sheetId="5" r:id="rId5"/>
-    <sheet name="Wave" sheetId="6" r:id="rId6"/>
+    <sheet name="EnemyAttr" sheetId="4" r:id="rId6"/>
     <sheet name="Medical" sheetId="7" r:id="rId7"/>
     <sheet name="Weapon" sheetId="8" r:id="rId8"/>
     <sheet name="Bomb" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="524">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -270,260 +270,1402 @@
     <t>TotalTime</t>
   </si>
   <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>SceneName</t>
+  </si>
+  <si>
+    <t>list_Wave</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>lv1-1</t>
+  </si>
+  <si>
+    <t>lv1-2</t>
+  </si>
+  <si>
+    <t>lv1-3</t>
+  </si>
+  <si>
+    <t>lv1-4</t>
+  </si>
+  <si>
+    <t>lv1-5</t>
+  </si>
+  <si>
+    <t>lv1-6</t>
+  </si>
+  <si>
+    <t>lv1-7</t>
+  </si>
+  <si>
+    <t>lv1-8</t>
+  </si>
+  <si>
+    <t>lv1-9</t>
+  </si>
+  <si>
+    <t>lv1-10</t>
+  </si>
+  <si>
+    <t>lv1-11</t>
+  </si>
+  <si>
+    <t>lv1-12</t>
+  </si>
+  <si>
+    <t>lv1-13</t>
+  </si>
+  <si>
+    <t>lv1-14</t>
+  </si>
+  <si>
+    <t>lv1-15</t>
+  </si>
+  <si>
+    <t>lv1-16</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>FireRate</t>
+  </si>
+  <si>
+    <t>AvoidRate</t>
+  </si>
+  <si>
+    <t>HitRate</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_1</t>
+  </si>
+  <si>
+    <t>tufei-1</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_2</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_3</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_4</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_5</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_6</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_7</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_8</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>EnemyName</t>
+  </si>
+  <si>
+    <t>EnemyLevel</t>
+  </si>
+  <si>
+    <t>CheckPoint</t>
+  </si>
+  <si>
+    <t>WaveItems</t>
+  </si>
+  <si>
+    <t>list_WaveItem</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>MedicalBox</t>
+  </si>
+  <si>
+    <t>His Medical</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>Battlefield props,quickly replenish blood.</t>
+  </si>
+  <si>
+    <t>huoli</t>
+  </si>
+  <si>
+    <t>danjia</t>
+  </si>
+  <si>
+    <t>wendingxing</t>
+  </si>
+  <si>
+    <t>shesu</t>
+  </si>
+  <si>
+    <t>isowned</t>
+  </si>
+  <si>
+    <t>isEquipment</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>Q-3</t>
+  </si>
+  <si>
+    <t>G36E</t>
+  </si>
+  <si>
+    <t>Q-1</t>
+  </si>
+  <si>
+    <t>AK47</t>
+  </si>
+  <si>
+    <t>Q-2</t>
+  </si>
+  <si>
+    <t>M4A1</t>
+  </si>
+  <si>
+    <t>Q-4</t>
+  </si>
+  <si>
+    <t>Bomb</t>
+  </si>
+  <si>
+    <t>Hand grenades</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>The battlefield props, can cause widespread damage.</t>
+  </si>
+  <si>
+    <t>Bomb_236755f9f77d474d9cc698abccce557c</t>
+  </si>
+  <si>
+    <t>tufei-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvbaobiao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAttr_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAttr_2_2</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_3</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_4</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_5</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_6</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_7</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_8</t>
+  </si>
+  <si>
+    <t>jiqiangshou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>WaveInterval</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>SceneName</t>
-  </si>
-  <si>
-    <t>list_Wave</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_1"</t>
-  </si>
-  <si>
-    <t>lv1-1</t>
-  </si>
-  <si>
-    <t>lv1-2</t>
-  </si>
-  <si>
-    <t>lv1-3</t>
-  </si>
-  <si>
-    <t>lv1-4</t>
-  </si>
-  <si>
-    <t>lv1-5</t>
-  </si>
-  <si>
-    <t>lv1-6</t>
-  </si>
-  <si>
-    <t>lv1-7</t>
-  </si>
-  <si>
-    <t>lv1-8</t>
-  </si>
-  <si>
-    <t>lv1-9</t>
-  </si>
-  <si>
-    <t>lv1-10</t>
-  </si>
-  <si>
-    <t>lv1-11</t>
-  </si>
-  <si>
-    <t>lv1-12</t>
-  </si>
-  <si>
-    <t>lv1-13</t>
-  </si>
-  <si>
-    <t>lv1-14</t>
-  </si>
-  <si>
-    <t>lv1-15</t>
-  </si>
-  <si>
-    <t>lv1-16</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Clip</t>
-  </si>
-  <si>
-    <t>FireRate</t>
-  </si>
-  <si>
-    <t>AvoidRate</t>
-  </si>
-  <si>
-    <t>HitRate</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_1</t>
-  </si>
-  <si>
-    <t>tufei-1</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_2</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_3</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_4</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_5</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_6</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_7</t>
-  </si>
-  <si>
-    <t>EnemyAttr_1_8</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>EnemyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-1bo-n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-1bo-j</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1-2bo-t</t>
+  </si>
+  <si>
+    <t>1-1-2bo-n</t>
+  </si>
+  <si>
+    <t>1-1-2bo-j</t>
+  </si>
+  <si>
+    <t>1-1-3bo-t</t>
+  </si>
+  <si>
+    <t>1-1-3bo-n</t>
+  </si>
+  <si>
+    <t>1-1-3bo-j</t>
+  </si>
+  <si>
+    <t>1-2-1bo-t</t>
+  </si>
+  <si>
+    <t>1-2-1bo-n</t>
+  </si>
+  <si>
+    <t>1-2-1bo-j</t>
+  </si>
+  <si>
+    <t>1-2-2bo-t</t>
+  </si>
+  <si>
+    <t>1-2-2bo-n</t>
+  </si>
+  <si>
+    <t>1-2-2bo-j</t>
+  </si>
+  <si>
+    <t>1-2-3bo-t</t>
+  </si>
+  <si>
+    <t>1-2-3bo-n</t>
+  </si>
+  <si>
+    <t>1-2-3bo-j</t>
+  </si>
+  <si>
+    <t>1-3-1bo-t</t>
+  </si>
+  <si>
+    <t>1-3-1bo-n</t>
+  </si>
+  <si>
+    <t>1-3-1bo-j</t>
+  </si>
+  <si>
+    <t>1-3-2bo-t</t>
+  </si>
+  <si>
+    <t>1-3-2bo-n</t>
+  </si>
+  <si>
+    <t>1-3-2bo-j</t>
+  </si>
+  <si>
+    <t>1-3-3bo-t</t>
+  </si>
+  <si>
+    <t>1-3-3bo-n</t>
+  </si>
+  <si>
+    <t>1-3-3bo-j</t>
+  </si>
+  <si>
+    <t>1-4-1bo-t</t>
+  </si>
+  <si>
+    <t>1-4-1bo-n</t>
+  </si>
+  <si>
+    <t>1-4-1bo-j</t>
+  </si>
+  <si>
+    <t>1-4-2bo-t</t>
+  </si>
+  <si>
+    <t>1-4-2bo-n</t>
+  </si>
+  <si>
+    <t>1-4-2bo-j</t>
+  </si>
+  <si>
+    <t>1-4-3bo-t</t>
+  </si>
+  <si>
+    <t>1-4-3bo-n</t>
+  </si>
+  <si>
+    <t>1-4-3bo-j</t>
+  </si>
+  <si>
+    <t>1-5-1bo-t</t>
+  </si>
+  <si>
+    <t>1-5-1bo-n</t>
+  </si>
+  <si>
+    <t>1-5-1bo-j</t>
+  </si>
+  <si>
+    <t>1-5-2bo-t</t>
+  </si>
+  <si>
+    <t>1-5-2bo-n</t>
+  </si>
+  <si>
+    <t>1-5-2bo-j</t>
+  </si>
+  <si>
+    <t>1-5-3bo-t</t>
+  </si>
+  <si>
+    <t>1-5-3bo-n</t>
+  </si>
+  <si>
+    <t>1-5-3bo-j</t>
+  </si>
+  <si>
+    <t>1-6-1bo-t</t>
+  </si>
+  <si>
+    <t>1-6-1bo-n</t>
+  </si>
+  <si>
+    <t>1-6-1bo-j</t>
+  </si>
+  <si>
+    <t>1-6-2bo-t</t>
+  </si>
+  <si>
+    <t>1-6-2bo-n</t>
+  </si>
+  <si>
+    <t>1-6-2bo-j</t>
+  </si>
+  <si>
+    <t>1-6-3bo-t</t>
+  </si>
+  <si>
+    <t>1-6-3bo-n</t>
+  </si>
+  <si>
+    <t>1-6-3bo-j</t>
+  </si>
+  <si>
+    <t>1-7-1bo-t</t>
+  </si>
+  <si>
+    <t>1-7-1bo-n</t>
+  </si>
+  <si>
+    <t>1-7-1bo-j</t>
+  </si>
+  <si>
+    <t>1-7-2bo-t</t>
+  </si>
+  <si>
+    <t>1-7-2bo-n</t>
+  </si>
+  <si>
+    <t>1-7-2bo-j</t>
+  </si>
+  <si>
+    <t>1-7-3bo-t</t>
+  </si>
+  <si>
+    <t>1-7-3bo-n</t>
+  </si>
+  <si>
+    <t>1-7-3bo-j</t>
+  </si>
+  <si>
+    <t>1-8-1bo-t</t>
+  </si>
+  <si>
+    <t>1-8-1bo-n</t>
+  </si>
+  <si>
+    <t>1-8-1bo-j</t>
+  </si>
+  <si>
+    <t>1-8-2bo-t</t>
+  </si>
+  <si>
+    <t>1-8-2bo-n</t>
+  </si>
+  <si>
+    <t>1-8-2bo-j</t>
+  </si>
+  <si>
+    <t>1-8-3bo-t</t>
+  </si>
+  <si>
+    <t>1-8-3bo-n</t>
+  </si>
+  <si>
+    <t>1-8-3bo-j</t>
   </si>
   <si>
     <t>EnemyCount</t>
-  </si>
-  <si>
-    <t>EnemyLevel</t>
-  </si>
-  <si>
-    <t>CheckPoint</t>
-  </si>
-  <si>
-    <t>Task_1_1_Wave_1_Item_1</t>
-  </si>
-  <si>
-    <t>Task_1_1_Wave_1_Item_1_919df013861c47b29104e39a5b26e0a1</t>
-  </si>
-  <si>
-    <t>nvbaobiao</t>
-  </si>
-  <si>
-    <t>WaveItems</t>
-  </si>
-  <si>
-    <t>list_WaveItem</t>
-  </si>
-  <si>
-    <t>Task_1_1_Wave_1</t>
-  </si>
-  <si>
-    <t>"Task_1_1_Wave_1_Item_1","Task_1_1_Wave_1_Item_1_919df013861c47b29104e39a5b26e0a1"</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>MedicalBox</t>
-  </si>
-  <si>
-    <t>His Medical</t>
-  </si>
-  <si>
-    <t>medical</t>
-  </si>
-  <si>
-    <t>Battlefield props,quickly replenish blood.</t>
-  </si>
-  <si>
-    <t>huoli</t>
-  </si>
-  <si>
-    <t>danjia</t>
-  </si>
-  <si>
-    <t>wendingxing</t>
-  </si>
-  <si>
-    <t>shesu</t>
-  </si>
-  <si>
-    <t>isowned</t>
-  </si>
-  <si>
-    <t>isEquipment</t>
-  </si>
-  <si>
-    <t>MP5</t>
-  </si>
-  <si>
-    <t>Q-3</t>
-  </si>
-  <si>
-    <t>G36E</t>
-  </si>
-  <si>
-    <t>Q-1</t>
-  </si>
-  <si>
-    <t>AK47</t>
-  </si>
-  <si>
-    <t>Q-2</t>
-  </si>
-  <si>
-    <t>M4A1</t>
-  </si>
-  <si>
-    <t>Q-4</t>
-  </si>
-  <si>
-    <t>Bomb</t>
-  </si>
-  <si>
-    <t>Hand grenades</t>
-  </si>
-  <si>
-    <t>bomb</t>
-  </si>
-  <si>
-    <t>The battlefield props, can cause widespread damage.</t>
-  </si>
-  <si>
-    <t>Bomb_236755f9f77d474d9cc698abccce557c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAttr_1_9</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_10</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_11</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_12</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_13</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_14</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_15</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_16</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_9</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_10</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_11</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_12</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_13</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_14</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_15</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_16</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_17</t>
+  </si>
+  <si>
+    <t>2-1-1bo-t</t>
+  </si>
+  <si>
+    <t>2-1-1bo-n</t>
+  </si>
+  <si>
+    <t>2-1-1bo-j</t>
+  </si>
+  <si>
+    <t>2-1-2bo-t</t>
+  </si>
+  <si>
+    <t>2-1-2bo-n</t>
+  </si>
+  <si>
+    <t>2-1-2bo-j</t>
+  </si>
+  <si>
+    <t>2-1-3bo-t</t>
+  </si>
+  <si>
+    <t>2-1-3bo-n</t>
+  </si>
+  <si>
+    <t>2-1-3bo-j</t>
+  </si>
+  <si>
+    <t>2-2-1bo-t</t>
+  </si>
+  <si>
+    <t>2-2-1bo-n</t>
+  </si>
+  <si>
+    <t>2-2-1bo-j</t>
+  </si>
+  <si>
+    <t>2-2-2bo-t</t>
+  </si>
+  <si>
+    <t>2-2-2bo-n</t>
+  </si>
+  <si>
+    <t>2-2-2bo-j</t>
+  </si>
+  <si>
+    <t>2-2-3bo-t</t>
+  </si>
+  <si>
+    <t>2-2-3bo-n</t>
+  </si>
+  <si>
+    <t>2-2-3bo-j</t>
+  </si>
+  <si>
+    <t>2-3-1bo-t</t>
+  </si>
+  <si>
+    <t>2-3-1bo-n</t>
+  </si>
+  <si>
+    <t>2-3-1bo-j</t>
+  </si>
+  <si>
+    <t>2-3-2bo-t</t>
+  </si>
+  <si>
+    <t>2-3-2bo-n</t>
+  </si>
+  <si>
+    <t>2-3-2bo-j</t>
+  </si>
+  <si>
+    <t>2-3-3bo-t</t>
+  </si>
+  <si>
+    <t>2-3-3bo-n</t>
+  </si>
+  <si>
+    <t>2-3-3bo-j</t>
+  </si>
+  <si>
+    <t>2-4-1bo-t</t>
+  </si>
+  <si>
+    <t>2-4-1bo-n</t>
+  </si>
+  <si>
+    <t>2-4-1bo-j</t>
+  </si>
+  <si>
+    <t>2-4-2bo-t</t>
+  </si>
+  <si>
+    <t>2-4-2bo-n</t>
+  </si>
+  <si>
+    <t>2-4-2bo-j</t>
+  </si>
+  <si>
+    <t>2-4-3bo-t</t>
+  </si>
+  <si>
+    <t>2-4-3bo-n</t>
+  </si>
+  <si>
+    <t>2-4-3bo-j</t>
+  </si>
+  <si>
+    <t>2-5-1bo-t</t>
+  </si>
+  <si>
+    <t>2-5-1bo-n</t>
+  </si>
+  <si>
+    <t>2-5-1bo-j</t>
+  </si>
+  <si>
+    <t>2-5-2bo-t</t>
+  </si>
+  <si>
+    <t>2-5-2bo-n</t>
+  </si>
+  <si>
+    <t>2-5-2bo-j</t>
+  </si>
+  <si>
+    <t>2-5-3bo-t</t>
+  </si>
+  <si>
+    <t>2-5-3bo-n</t>
+  </si>
+  <si>
+    <t>2-5-3bo-j</t>
+  </si>
+  <si>
+    <t>2-6-1bo-t</t>
+  </si>
+  <si>
+    <t>2-6-1bo-n</t>
+  </si>
+  <si>
+    <t>2-6-1bo-j</t>
+  </si>
+  <si>
+    <t>2-6-2bo-t</t>
+  </si>
+  <si>
+    <t>2-6-2bo-n</t>
+  </si>
+  <si>
+    <t>2-6-2bo-j</t>
+  </si>
+  <si>
+    <t>2-6-3bo-t</t>
+  </si>
+  <si>
+    <t>2-6-3bo-n</t>
+  </si>
+  <si>
+    <t>2-6-3bo-j</t>
+  </si>
+  <si>
+    <t>2-7-1bo-t</t>
+  </si>
+  <si>
+    <t>2-7-1bo-n</t>
+  </si>
+  <si>
+    <t>2-7-1bo-j</t>
+  </si>
+  <si>
+    <t>2-7-2bo-t</t>
+  </si>
+  <si>
+    <t>2-7-2bo-n</t>
+  </si>
+  <si>
+    <t>2-7-2bo-j</t>
+  </si>
+  <si>
+    <t>2-7-3bo-t</t>
+  </si>
+  <si>
+    <t>2-7-3bo-n</t>
+  </si>
+  <si>
+    <t>2-7-3bo-j</t>
+  </si>
+  <si>
+    <t>2-8-1bo-t</t>
+  </si>
+  <si>
+    <t>2-8-1bo-n</t>
+  </si>
+  <si>
+    <t>2-8-1bo-j</t>
+  </si>
+  <si>
+    <t>2-8-2bo-t</t>
+  </si>
+  <si>
+    <t>2-8-2bo-n</t>
+  </si>
+  <si>
+    <t>2-8-2bo-j</t>
+  </si>
+  <si>
+    <t>2-8-3bo-t</t>
+  </si>
+  <si>
+    <t>2-8-3bo-n</t>
+  </si>
+  <si>
+    <t>2-8-3bo-j</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_17</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_18</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_19</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_20</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_21</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_22</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_23</t>
+  </si>
+  <si>
+    <t>EnemyAttr_1_24</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_18</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_19</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_20</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_21</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_22</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_23</t>
+  </si>
+  <si>
+    <t>EnemyAttr_2_24</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiqiangshou</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyAttr_3_2</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_3</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_4</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_5</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_6</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_7</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_8</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_9</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_10</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_11</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_12</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_13</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_14</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_15</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_16</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_17</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_18</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_19</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_20</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_21</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_22</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_23</t>
+  </si>
+  <si>
+    <t>EnemyAttr_3_24</t>
+  </si>
+  <si>
+    <t>1-1-1bo-t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1-1-1bo-t","1-1-1bo-n","1-1-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-1-2bo-t","1-1-2bo-n","1-1-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-1-3bo-t","1-1-3bo-n","1-1-3bo-j"</t>
+  </si>
+  <si>
+    <t>"Task1-1-1bo","Task1-1-2bo","Task1-1-3bo"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Task1-2-1bo","Task1-2-2bo","Task1-2-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-3-1bo","Task1-3-2bo","Task1-3-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-4-1bo","Task1-4-2bo","Task1-4-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-5-1bo","Task1-5-2bo","Task1-5-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-6-1bo","Task1-6-2bo","Task1-6-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-7-1bo","Task1-7-2bo","Task1-7-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-9-1bo","Task1-9-2bo","Task1-9-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-10-1bo","Task1-10-2bo","Task1-10-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-11-1bo","Task1-11-2bo","Task1-11-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-12-1bo","Task1-12-2bo","Task1-12-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-13-1bo","Task1-13-2bo","Task1-13-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-14-1bo","Task1-14-2bo","Task1-14-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-15-1bo","Task1-15-2bo","Task1-15-3bo"</t>
+  </si>
+  <si>
+    <t>"Task1-16-1bo","Task1-16-2bo","Task1-16-3bo"</t>
+  </si>
+  <si>
+    <t>Task1-2-1bo</t>
+  </si>
+  <si>
+    <t>Task1-2-2bo</t>
+  </si>
+  <si>
+    <t>Task1-2-3bo</t>
+  </si>
+  <si>
+    <t>Task1-3-1bo</t>
+  </si>
+  <si>
+    <t>Task1-3-2bo</t>
+  </si>
+  <si>
+    <t>Task1-3-3bo</t>
+  </si>
+  <si>
+    <t>Task1-1-1bo</t>
+  </si>
+  <si>
+    <t>Task1-1-2bo</t>
+  </si>
+  <si>
+    <t>Task1-1-3bo</t>
+  </si>
+  <si>
+    <t>Task1-4-1bo</t>
+  </si>
+  <si>
+    <t>Task1-4-2bo</t>
+  </si>
+  <si>
+    <t>Task1-4-3bo</t>
+  </si>
+  <si>
+    <t>Task1-5-1bo</t>
+  </si>
+  <si>
+    <t>Task1-5-2bo</t>
+  </si>
+  <si>
+    <t>Task1-5-3bo</t>
+  </si>
+  <si>
+    <t>Task1-6-1bo</t>
+  </si>
+  <si>
+    <t>Task1-6-2bo</t>
+  </si>
+  <si>
+    <t>Task1-6-3bo</t>
+  </si>
+  <si>
+    <t>Task1-7-1bo</t>
+  </si>
+  <si>
+    <t>Task1-7-2bo</t>
+  </si>
+  <si>
+    <t>Task1-7-3bo</t>
+  </si>
+  <si>
+    <t>Task1-8-1bo</t>
+  </si>
+  <si>
+    <t>Task1-8-2bo</t>
+  </si>
+  <si>
+    <t>Task1-8-3bo</t>
+  </si>
+  <si>
+    <t>Task1-9-1bo</t>
+  </si>
+  <si>
+    <t>Task1-9-2bo</t>
+  </si>
+  <si>
+    <t>Task1-9-3bo</t>
+  </si>
+  <si>
+    <t>Task1-10-1bo</t>
+  </si>
+  <si>
+    <t>Task1-10-2bo</t>
+  </si>
+  <si>
+    <t>Task1-10-3bo</t>
+  </si>
+  <si>
+    <t>Task1-11-1bo</t>
+  </si>
+  <si>
+    <t>Task1-11-2bo</t>
+  </si>
+  <si>
+    <t>Task1-11-3bo</t>
+  </si>
+  <si>
+    <t>Task1-12-1bo</t>
+  </si>
+  <si>
+    <t>Task1-12-2bo</t>
+  </si>
+  <si>
+    <t>Task1-12-3bo</t>
+  </si>
+  <si>
+    <t>Task1-13-1bo</t>
+  </si>
+  <si>
+    <t>Task1-13-2bo</t>
+  </si>
+  <si>
+    <t>Task1-13-3bo</t>
+  </si>
+  <si>
+    <t>Task1-14-1bo</t>
+  </si>
+  <si>
+    <t>Task1-14-2bo</t>
+  </si>
+  <si>
+    <t>Task1-14-3bo</t>
+  </si>
+  <si>
+    <t>Task1-15-1bo</t>
+  </si>
+  <si>
+    <t>Task1-15-2bo</t>
+  </si>
+  <si>
+    <t>Task1-15-3bo</t>
+  </si>
+  <si>
+    <t>Task1-16-1bo</t>
+  </si>
+  <si>
+    <t>Task1-16-2bo</t>
+  </si>
+  <si>
+    <t>Task1-16-3bo</t>
+  </si>
+  <si>
+    <t>Task1-17-1bo</t>
+  </si>
+  <si>
+    <t>Task1-17-2bo</t>
+  </si>
+  <si>
+    <t>Task1-17-3bo</t>
+  </si>
+  <si>
+    <t>Task1-18-1bo</t>
+  </si>
+  <si>
+    <t>Task1-18-2bo</t>
+  </si>
+  <si>
+    <t>Task1-18-3bo</t>
+  </si>
+  <si>
+    <t>Task1-19-1bo</t>
+  </si>
+  <si>
+    <t>Task1-19-2bo</t>
+  </si>
+  <si>
+    <t>Task1-19-3bo</t>
+  </si>
+  <si>
+    <t>Task1-20-1bo</t>
+  </si>
+  <si>
+    <t>Task1-20-2bo</t>
+  </si>
+  <si>
+    <t>Task1-20-3bo</t>
+  </si>
+  <si>
+    <t>Task1-21-1bo</t>
+  </si>
+  <si>
+    <t>Task1-21-2bo</t>
+  </si>
+  <si>
+    <t>Task1-21-3bo</t>
+  </si>
+  <si>
+    <t>Task1-22-1bo</t>
+  </si>
+  <si>
+    <t>Task1-22-2bo</t>
+  </si>
+  <si>
+    <t>Task1-22-3bo</t>
+  </si>
+  <si>
+    <t>Task1-23-1bo</t>
+  </si>
+  <si>
+    <t>Task1-23-2bo</t>
+  </si>
+  <si>
+    <t>Task1-23-3bo</t>
+  </si>
+  <si>
+    <t>Task1-24-1bo</t>
+  </si>
+  <si>
+    <t>Task1-24-2bo</t>
+  </si>
+  <si>
+    <t>Task1-24-3bo</t>
+  </si>
+  <si>
+    <t>"1-2-1bo-t","1-2-1bo-n","1-2-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-2-2bo-t","1-2-2bo-n","1-2-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-2-3bo-t","1-2-3bo-n","1-2-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-3-1bo-t","1-3-1bo-n","1-3-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-3-2bo-t","1-3-2bo-n","1-3-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-3-3bo-t","1-3-3bo-n","1-3-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-4-1bo-t","1-4-1bo-n","1-4-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-4-2bo-t","1-4-2bo-n","1-4-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-4-3bo-t","1-4-3bo-n","1-4-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-1-1bo-t","2-1-1bo-n","2-1-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-1-2bo-t","2-1-2bo-n","2-1-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-1-3bo-t","2-1-3bo-n","2-1-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-2-1bo-t","2-2-1bo-n","2-2-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-2-2bo-t","2-2-2bo-n","2-2-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-2-3bo-t","2-2-3bo-n","2-2-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-3-1bo-t","2-3-1bo-n","2-3-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-3-2bo-t","2-3-2bo-n","2-3-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-3-3bo-t","2-3-3bo-n","2-3-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-4-1bo-t","2-4-1bo-n","2-4-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-4-2bo-t","2-4-2bo-n","2-4-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-4-3bo-t","2-4-3bo-n","2-4-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-5-1bo-t","2-5-1bo-n","2-5-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-5-2bo-t","2-5-2bo-n","2-5-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-5-3bo-t","2-5-3bo-n","2-5-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-6-1bo-t","2-6-1bo-n","2-6-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-6-2bo-t","2-6-2bo-n","2-6-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-6-3bo-t","2-6-3bo-n","2-6-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-7-1bo-t","2-7-1bo-n","2-7-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-7-2bo-t","2-7-2bo-n","2-7-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-7-3bo-t","2-7-3bo-n","2-7-3bo-j"</t>
+  </si>
+  <si>
+    <t>"2-8-1bo-t","2-8-1bo-n","2-8-1bo-j"</t>
+  </si>
+  <si>
+    <t>"2-8-2bo-t","2-8-2bo-n","2-8-2bo-j"</t>
+  </si>
+  <si>
+    <t>"2-8-3bo-t","2-8-3bo-n","2-8-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-5-1bo-t","1-5-1bo-n","1-5-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-5-2bo-t","1-5-2bo-n","1-5-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-5-3bo-t","1-5-3bo-n","1-5-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-6-1bo-t","1-6-1bo-n","1-6-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-6-2bo-t","1-6-2bo-n","1-6-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-6-3bo-t","1-6-3bo-n","1-6-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-7-1bo-t","1-7-1bo-n","1-7-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-7-2bo-t","1-7-2bo-n","1-7-2bo-j"</t>
+  </si>
+  <si>
+    <t>"1-7-3bo-t","1-7-3bo-n","1-7-3bo-j"</t>
+  </si>
+  <si>
+    <t>"1-8-1bo-t","1-8-1bo-n","1-8-1bo-j"</t>
+  </si>
+  <si>
+    <t>"1-8-2bo-t","1-8-2bo-n","1-8-2bo-j"</t>
+  </si>
+  <si>
+    <t>Task_1_17</t>
+  </si>
+  <si>
+    <t>Task_1_18</t>
+  </si>
+  <si>
+    <t>Task_1_19</t>
+  </si>
+  <si>
+    <t>Task_1_20</t>
+  </si>
+  <si>
+    <t>Task_1_21</t>
+  </si>
+  <si>
+    <t>Task_1_22</t>
+  </si>
+  <si>
+    <t>Task_1_23</t>
+  </si>
+  <si>
+    <t>Task_1_24</t>
+  </si>
+  <si>
+    <t>1-8-4bo-t</t>
+  </si>
+  <si>
+    <t>1-8-4bo-n</t>
+  </si>
+  <si>
+    <t>1-8-4bo-j</t>
+  </si>
+  <si>
+    <t>1-8-5bo-t</t>
+  </si>
+  <si>
+    <t>1-8-5bo-n</t>
+  </si>
+  <si>
+    <t>1-8-5bo-j</t>
+  </si>
+  <si>
+    <t>"1-8-3bo-t","1-8-3bo-n","1-8-3bo-j"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task1-8-5bo</t>
+  </si>
+  <si>
+    <t>"1-8-4bo-t","1-8-4bo-n","1-8-4bo-j"</t>
+  </si>
+  <si>
+    <t>"1-8-5bo-t","1-8-5bo-n","1-8-5bo-j"</t>
+  </si>
+  <si>
+    <t>Task1-8-4bo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"Task1-8-1bo","Task1-8-2bo","Task1-8-3bo"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,"Task1-8-4bo","Task1-8-5bo"</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tufei-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -543,14 +1685,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="4"/>
+    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -852,7 +2011,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +2079,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -928,15 +2087,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -994,7 +2155,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1009,7 +2170,7 @@
         <v>23</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +2216,7 @@
         <v>31</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -1109,7 +2270,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -1132,7 +2293,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -1155,7 +2316,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -1173,208 +2334,208 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>49</v>
       </c>
-      <c r="E11">
+      <c r="E19">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F19" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="E12">
+      <c r="E20">
         <v>10</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F20" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E13">
+      <c r="E21">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F21" t="s">
         <v>58</v>
       </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E14">
+      <c r="E22">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F22" t="s">
         <v>62</v>
       </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E15">
+      <c r="E23">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F23" t="s">
         <v>66</v>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D24" t="s">
         <v>69</v>
       </c>
-      <c r="E16">
+      <c r="E24">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="E17">
+      <c r="E25">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="E18">
+      <c r="E26">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F26" t="s">
         <v>78</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G26" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
@@ -1396,13 +2557,13 @@
         <v>81</v>
       </c>
       <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1410,7 +2571,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1419,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -1433,22 +2594,22 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>372</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,22 +2617,24 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <f>E3+1</f>
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <f>F3+8</f>
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
         <v>87</v>
-      </c>
-      <c r="C4">
-        <v>101</v>
-      </c>
-      <c r="D4">
-        <v>91</v>
-      </c>
-      <c r="E4">
-        <v>21</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,22 +2642,24 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>374</v>
       </c>
       <c r="C5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="E5">
-        <v>22</v>
+        <f t="shared" ref="E5:E18" si="0">E4+1</f>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <f t="shared" ref="F5:F18" si="1">F4+8</f>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1502,22 +2667,24 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>375</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>124</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,22 +2692,24 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>376</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,22 +2717,24 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="C8">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,45 +2742,49 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>378</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="E9">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>148</v>
       </c>
       <c r="G9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
-        <v>87</v>
+      <c r="B10" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="C10">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1617,22 +2792,24 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="C11">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D11">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>164</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1640,22 +2817,24 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>380</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1663,22 +2842,24 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>381</v>
       </c>
       <c r="C13">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1686,22 +2867,24 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
       <c r="C14">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1709,22 +2892,24 @@
         <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>383</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="E15">
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>196</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1732,22 +2917,24 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>384</v>
       </c>
       <c r="C16">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D16">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="E16">
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>204</v>
       </c>
       <c r="G16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1755,22 +2942,24 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>385</v>
       </c>
       <c r="C17">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="E17">
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <f t="shared" si="1"/>
+        <v>212</v>
       </c>
       <c r="G17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1778,77 +2967,99 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>386</v>
       </c>
       <c r="C18">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D18">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>220</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="88.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1856,301 +3067,768 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>393</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>395</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>66</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>53</v>
-      </c>
-      <c r="J6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>388</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>73</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>34</v>
-      </c>
-      <c r="I7">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>58</v>
-      </c>
-      <c r="J8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>86</v>
-      </c>
-      <c r="E9">
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>36</v>
-      </c>
-      <c r="I9">
-        <v>61</v>
-      </c>
-      <c r="J9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>391</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>100</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>37</v>
-      </c>
-      <c r="I10">
-        <v>64</v>
-      </c>
-      <c r="J10" t="s">
-        <v>114</v>
+      <c r="C10" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>398</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>406</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>410</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>518</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>411</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>412</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>417</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>418</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>419</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>420</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>421</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>422</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>423</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>424</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>425</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>426</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>427</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>432</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>433</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>434</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>435</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>436</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>437</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>438</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>440</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>442</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>443</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>445</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>446</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>448</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>449</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>451</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>452</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>453</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>454</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>455</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>456</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>458</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -2163,19 +3841,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,19 +3878,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>368</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -2220,13 +3898,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2238,37 +3916,2590 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>6</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>154</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>217</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>155</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>226</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>8</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="F67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>8</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>8</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>234</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>236</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>511</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>513</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>514</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>8</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>515</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>155</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>154</v>
+      </c>
+      <c r="E89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>155</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>154</v>
+      </c>
+      <c r="E92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>164</v>
+      </c>
+      <c r="E97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>265</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>266</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+      <c r="E101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>155</v>
+      </c>
+      <c r="E102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>270</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+      <c r="E103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>272</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>155</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>164</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>274</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>155</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>344</v>
+      </c>
+      <c r="E109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>279</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>164</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>280</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>281</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>155</v>
+      </c>
+      <c r="E114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>282</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="E115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>283</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>154</v>
+      </c>
+      <c r="E116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>284</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>155</v>
+      </c>
+      <c r="E117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>285</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>164</v>
+      </c>
+      <c r="E118">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>155</v>
+      </c>
+      <c r="E120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>288</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>154</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>155</v>
+      </c>
+      <c r="E123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>291</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>154</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>293</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>294</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>164</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>295</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>154</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>296</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>155</v>
+      </c>
+      <c r="E129">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>164</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>298</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>299</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>300</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>164</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>301</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>154</v>
+      </c>
+      <c r="E134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>302</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>155</v>
+      </c>
+      <c r="E135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>303</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>164</v>
+      </c>
+      <c r="E136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>304</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>154</v>
+      </c>
+      <c r="E137">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>155</v>
+      </c>
+      <c r="E138">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>306</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="E139">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>307</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>154</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>308</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>309</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>164</v>
+      </c>
+      <c r="E142">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>310</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>154</v>
+      </c>
+      <c r="E143">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>311</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>313</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>154</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>314</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>315</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>164</v>
+      </c>
+      <c r="E148">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>154</v>
+      </c>
+      <c r="E149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>317</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>318</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>164</v>
+      </c>
+      <c r="E151">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>319</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>154</v>
+      </c>
+      <c r="E152">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>321</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>164</v>
+      </c>
+      <c r="E154">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>154</v>
+      </c>
+      <c r="E155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>323</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>164</v>
+      </c>
+      <c r="E157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>154</v>
+      </c>
+      <c r="E158">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>326</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>327</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="88.42578125" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2276,22 +6507,2658 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>D3+8</f>
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <f>E3+0.4</f>
+        <v>10.4</v>
+      </c>
+      <c r="F4">
+        <f>F3+0.3</f>
+        <v>14.3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f>H3+1</f>
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <f>I3+0.4</f>
+        <v>22.4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D26" si="0">D4+8</f>
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E26" si="1">E4+0.4</f>
+        <v>10.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F26" si="2">F4+0.2</f>
+        <v>14.5</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H26" si="3">H4+1</f>
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I26" si="4">I4+0.3</f>
+        <v>22.7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>14.7</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>14.899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>23.3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>15.099999999999998</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>23.6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>12.400000000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>23.900000000000002</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>12.800000000000002</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>15.499999999999996</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>15.699999999999996</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>24.500000000000004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>13.600000000000003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>15.899999999999995</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>24.800000000000004</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>14.000000000000004</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>16.099999999999994</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>25.100000000000005</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>14.400000000000004</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>16.299999999999994</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>25.400000000000006</v>
+      </c>
+      <c r="J14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>14.800000000000004</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>16.499999999999993</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>25.700000000000006</v>
+      </c>
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>15.200000000000005</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>16.699999999999992</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>26.000000000000007</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>15.600000000000005</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>16.899999999999991</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>26.300000000000008</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>17.099999999999991</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>26.600000000000009</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>17.29999999999999</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>26.900000000000009</v>
+      </c>
+      <c r="J19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>17.499999999999989</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>27.20000000000001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>330</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>17.2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>17.699999999999989</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>27.500000000000011</v>
+      </c>
+      <c r="J21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>17.899999999999988</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>27.800000000000011</v>
+      </c>
+      <c r="J22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>18.099999999999987</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>28.100000000000012</v>
+      </c>
+      <c r="J23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>18.399999999999995</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>18.299999999999986</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>28.400000000000013</v>
+      </c>
+      <c r="J24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>18.799999999999994</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>18.499999999999986</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>28.700000000000014</v>
+      </c>
+      <c r="J25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>19.199999999999992</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>18.699999999999985</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>29.000000000000014</v>
+      </c>
+      <c r="J26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>30</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>16</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>35</v>
+      </c>
+      <c r="J30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <f>D30+6</f>
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <f>E30+0.8</f>
+        <v>20.8</v>
+      </c>
+      <c r="F31">
+        <f>F30+0.3</f>
+        <v>16.3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>31</v>
+      </c>
+      <c r="I31">
+        <f>I30+1</f>
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D53" si="5">D31+6</f>
+        <v>42</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ref="E32:E53" si="6">E31+0.8</f>
+        <v>21.6</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ref="F32:F53" si="7">F31+0.3</f>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:I53" si="8">I31+1</f>
+        <v>37</v>
+      </c>
+      <c r="J32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>22.400000000000002</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="7"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>33</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="J33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="7"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>34</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>24.000000000000004</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>17.500000000000004</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>24.800000000000004</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="7"/>
+        <v>17.800000000000004</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>36</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>25.600000000000005</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="7"/>
+        <v>18.100000000000005</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>37</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="J37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>26.400000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="7"/>
+        <v>18.400000000000006</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>38</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>27.200000000000006</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="7"/>
+        <v>18.700000000000006</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>39</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+      <c r="J39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>28.000000000000007</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="7"/>
+        <v>19.000000000000007</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="5"/>
+        <v>96</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>28.800000000000008</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="7"/>
+        <v>19.300000000000008</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>41</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>251</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>29.600000000000009</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="7"/>
+        <v>19.600000000000009</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="J42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>30.400000000000009</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="7"/>
+        <v>19.900000000000009</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>43</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="J43" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>31.20000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="7"/>
+        <v>20.20000000000001</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>44</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="J44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>32.000000000000007</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>20.500000000000011</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>45</v>
+      </c>
+      <c r="I45">
+        <f>I44+1</f>
+        <v>50</v>
+      </c>
+      <c r="J45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>32.800000000000004</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="7"/>
+        <v>20.800000000000011</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>46</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="J46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>336</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>33.6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="7"/>
+        <v>21.100000000000012</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>47</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="J47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>34.4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="7"/>
+        <v>21.400000000000013</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>48</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="J48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>35.199999999999996</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>21.700000000000014</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>49</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="J49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>21</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>35.999999999999993</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>22.000000000000014</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>50</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>36.79999999999999</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>22.300000000000015</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="J51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>23</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>37.599999999999987</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>22.600000000000016</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>52</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="J52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>24</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>38.399999999999984</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="7"/>
+        <v>22.900000000000016</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>53</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="J53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f>D60+10</f>
+        <v>90</v>
+      </c>
+      <c r="E61">
+        <f>E60+0.4</f>
+        <v>8.4</v>
+      </c>
+      <c r="F61">
+        <f>F60+2</f>
+        <v>52</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <f>H60+0.4</f>
+        <v>10.4</v>
+      </c>
+      <c r="I61">
+        <f>I60+0.4</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D84" si="9">D61+10</f>
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:E83" si="10">E61+0.4</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:F83" si="11">F61+2</f>
+        <v>54</v>
+      </c>
+      <c r="G62">
+        <v>5</v>
+      </c>
+      <c r="H62">
+        <f t="shared" ref="H62:H83" si="12">H61+0.4</f>
+        <v>10.8</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62:I83" si="13">I61+0.4</f>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="J62" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="10"/>
+        <v>9.2000000000000011</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="12"/>
+        <v>11.200000000000001</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="13"/>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="J63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="10"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="12"/>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="13"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="J64" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="10"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="12"/>
+        <v>12.000000000000002</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="13"/>
+        <v>19.999999999999993</v>
+      </c>
+      <c r="J65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>350</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="10"/>
+        <v>10.400000000000002</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="12"/>
+        <v>12.400000000000002</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="13"/>
+        <v>20.399999999999991</v>
+      </c>
+      <c r="J66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="10"/>
+        <v>10.800000000000002</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="12"/>
+        <v>12.800000000000002</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="13"/>
+        <v>20.79999999999999</v>
+      </c>
+      <c r="J67" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="10"/>
+        <v>11.200000000000003</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="12"/>
+        <v>13.200000000000003</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="13"/>
+        <v>21.199999999999989</v>
+      </c>
+      <c r="J68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>353</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="10"/>
+        <v>11.600000000000003</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="12"/>
+        <v>13.600000000000003</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>21.599999999999987</v>
+      </c>
+      <c r="J69" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>354</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="10"/>
+        <v>12.000000000000004</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="G70">
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="12"/>
+        <v>14.000000000000004</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="13"/>
+        <v>21.999999999999986</v>
+      </c>
+      <c r="J70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>190</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="10"/>
+        <v>12.400000000000004</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="12"/>
+        <v>14.400000000000004</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="13"/>
+        <v>22.399999999999984</v>
+      </c>
+      <c r="J71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="10"/>
+        <v>12.800000000000004</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="12"/>
+        <v>14.800000000000004</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="13"/>
+        <v>22.799999999999983</v>
+      </c>
+      <c r="J72" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>210</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="10"/>
+        <v>13.200000000000005</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="12"/>
+        <v>15.200000000000005</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="13"/>
+        <v>23.199999999999982</v>
+      </c>
+      <c r="J73" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>358</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="9"/>
+        <v>220</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="10"/>
+        <v>13.600000000000005</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="12"/>
+        <v>15.600000000000005</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="13"/>
+        <v>23.59999999999998</v>
+      </c>
+      <c r="J74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>359</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>16</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="9"/>
+        <v>230</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="10"/>
+        <v>14.000000000000005</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="12"/>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="13"/>
+        <v>23.999999999999979</v>
+      </c>
+      <c r="J75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>360</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>17</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="9"/>
+        <v>240</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="10"/>
+        <v>14.400000000000006</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="12"/>
+        <v>16.400000000000002</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="13"/>
+        <v>24.399999999999977</v>
+      </c>
+      <c r="J76" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="10"/>
+        <v>14.800000000000006</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="12"/>
+        <v>16.8</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="13"/>
+        <v>24.799999999999976</v>
+      </c>
+      <c r="J77" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="10"/>
+        <v>15.200000000000006</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="G78">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="12"/>
+        <v>17.2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>25.199999999999974</v>
+      </c>
+      <c r="J78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>363</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="10"/>
+        <v>15.600000000000007</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="12"/>
+        <v>17.599999999999998</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="13"/>
+        <v>25.599999999999973</v>
+      </c>
+      <c r="J79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="9"/>
+        <v>280</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="10"/>
+        <v>16.000000000000007</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <v>5</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="12"/>
+        <v>17.999999999999996</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="13"/>
+        <v>25.999999999999972</v>
+      </c>
+      <c r="J80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="9"/>
+        <v>290</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="10"/>
+        <v>16.400000000000006</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="12"/>
+        <v>18.399999999999995</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="13"/>
+        <v>26.39999999999997</v>
+      </c>
+      <c r="J81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>366</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="9"/>
+        <v>300</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="10"/>
+        <v>16.800000000000004</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>94</v>
+      </c>
+      <c r="G82">
+        <v>5</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="12"/>
+        <v>18.799999999999994</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="13"/>
+        <v>26.799999999999969</v>
+      </c>
+      <c r="J82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>24</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="9"/>
+        <v>310</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="10"/>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="G83">
+        <v>5</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="12"/>
+        <v>19.199999999999992</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="13"/>
+        <v>27.199999999999967</v>
+      </c>
+      <c r="J83" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2316,19 +9183,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2353,26 +9220,26 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2381,7 +9248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2398,34 +9267,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>143</v>
-      </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,7 +9334,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2474,19 +9343,19 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -2500,7 +9369,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -2509,19 +9378,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2535,28 +9404,28 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -2570,28 +9439,28 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -2604,7 +9473,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2629,19 +9498,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,19 +9535,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2686,26 +9555,26 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="516">
   <si>
     <t>GDE_FIELD_NAMES</t>
   </si>
@@ -487,15 +487,15 @@
   </si>
   <si>
     <t>tufei-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>nvbaobiao</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_2</t>
@@ -520,23 +520,23 @@
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>WaveInterval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-n</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1-1-2bo-t</t>
@@ -747,7 +747,7 @@
   </si>
   <si>
     <t>EnemyCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_1_9</t>
@@ -1063,11 +1063,11 @@
   </si>
   <si>
     <t>EnemyAttr_3_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_3_2</t>
@@ -1140,7 +1140,7 @@
   </si>
   <si>
     <t>1-1-1bo-t</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"1-1-1bo-t","1-1-1bo-n","1-1-1bo-j"</t>
@@ -1153,7 +1153,7 @@
   </si>
   <si>
     <t>"Task1-1-1bo","Task1-1-2bo","Task1-1-3bo"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"Task1-2-1bo","Task1-2-2bo","Task1-2-3bo"</t>
@@ -1546,30 +1546,6 @@
     <t>"1-8-2bo-t","1-8-2bo-n","1-8-2bo-j"</t>
   </si>
   <si>
-    <t>Task_1_17</t>
-  </si>
-  <si>
-    <t>Task_1_18</t>
-  </si>
-  <si>
-    <t>Task_1_19</t>
-  </si>
-  <si>
-    <t>Task_1_20</t>
-  </si>
-  <si>
-    <t>Task_1_21</t>
-  </si>
-  <si>
-    <t>Task_1_22</t>
-  </si>
-  <si>
-    <t>Task_1_23</t>
-  </si>
-  <si>
-    <t>Task_1_24</t>
-  </si>
-  <si>
     <t>1-8-4bo-t</t>
   </si>
   <si>
@@ -1589,7 +1565,7 @@
   </si>
   <si>
     <t>"1-8-3bo-t","1-8-3bo-n","1-8-3bo-j"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Task1-8-5bo</t>
@@ -1602,7 +1578,7 @@
   </si>
   <si>
     <t>Task1-8-4bo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1616,7 +1592,7 @@
       </rPr>
       <t>,"Task1-8-4bo","Task1-8-5bo"</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1630,17 +1606,25 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1667,6 +1651,10 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1685,31 +1673,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3 2" xfId="7"/>
     <cellStyle name="常规 4" xfId="3"/>
+    <cellStyle name="常规 5" xfId="6"/>
+    <cellStyle name="常规 5 2" xfId="8"/>
+    <cellStyle name="常规 6" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2079,7 +2086,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2087,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A11" sqref="A11:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,202 +2341,202 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D11" t="s">
         <v>49</v>
       </c>
-      <c r="E19">
+      <c r="E11">
         <v>9</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D12" t="s">
         <v>53</v>
       </c>
-      <c r="E20">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F12" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D13" t="s">
         <v>57</v>
       </c>
-      <c r="E21">
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>59</v>
       </c>
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D14" t="s">
         <v>61</v>
       </c>
-      <c r="E22">
+      <c r="E14">
         <v>12</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F14" t="s">
         <v>62</v>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D15" t="s">
         <v>65</v>
       </c>
-      <c r="E23">
+      <c r="E15">
         <v>13</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D16" t="s">
         <v>69</v>
       </c>
-      <c r="E24">
+      <c r="E16">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>71</v>
       </c>
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>72</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="E25">
+      <c r="E17">
         <v>15</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F17" t="s">
         <v>74</v>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>76</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D18" t="s">
         <v>77</v>
       </c>
-      <c r="E26">
+      <c r="E18">
         <v>16</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F18" t="s">
         <v>78</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G18" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A19:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,7 +2774,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2987,48 +2994,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>510</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3038,7 +3005,7 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,29 +3298,29 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +3780,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3822,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
@@ -5318,13 +5285,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -5338,7 +5305,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -5358,7 +5325,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -5378,13 +5345,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -5398,7 +5365,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -5418,7 +5385,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -6445,7 +6412,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6454,8 +6421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6573,27 +6540,22 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <f>D3+8</f>
+      <c r="D4" s="8">
         <v>68</v>
       </c>
-      <c r="E4">
-        <f>E3+0.4</f>
+      <c r="E4" s="7">
         <v>10.4</v>
       </c>
-      <c r="F4">
-        <f>F3+0.3</f>
+      <c r="F4" s="4">
         <v>14.3</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <f>H3+1</f>
+      <c r="H4" s="5">
         <v>11</v>
       </c>
-      <c r="I4">
-        <f>I3+0.4</f>
+      <c r="I4" s="6">
         <v>22.4</v>
       </c>
       <c r="J4" t="s">
@@ -6610,27 +6572,22 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D26" si="0">D4+8</f>
+      <c r="D5" s="8">
         <v>76</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E26" si="1">E4+0.4</f>
+      <c r="E5" s="7">
         <v>10.8</v>
       </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F26" si="2">F4+0.2</f>
+      <c r="F5" s="4">
         <v>14.5</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H26" si="3">H4+1</f>
+      <c r="H5" s="5">
         <v>12</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I26" si="4">I4+0.3</f>
+      <c r="I5" s="6">
         <v>22.7</v>
       </c>
       <c r="J5" t="s">
@@ -6647,27 +6604,22 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
+      <c r="D6" s="8">
         <v>84</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="7">
         <v>11.200000000000001</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
+      <c r="F6" s="4">
         <v>14.7</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
+      <c r="H6" s="5">
         <v>13</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
+      <c r="I6" s="6">
         <v>23</v>
       </c>
       <c r="J6" t="s">
@@ -6684,27 +6636,22 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
+      <c r="D7" s="8">
         <v>92</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
+      <c r="E7" s="7">
         <v>11.600000000000001</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
+      <c r="F7" s="4">
         <v>14.899999999999999</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
+      <c r="H7" s="5">
         <v>14</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
+      <c r="I7" s="6">
         <v>23.3</v>
       </c>
       <c r="J7" t="s">
@@ -6721,27 +6668,22 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
+      <c r="D8" s="8">
         <v>100</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
+      <c r="E8" s="7">
         <v>12.000000000000002</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
+      <c r="F8" s="4">
         <v>15.099999999999998</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
+      <c r="H8" s="5">
         <v>15</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
+      <c r="I8" s="6">
         <v>23.6</v>
       </c>
       <c r="J8" t="s">
@@ -6758,27 +6700,22 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="D9" s="8">
         <v>108</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
+      <c r="E9" s="7">
         <v>12.400000000000002</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
+      <c r="F9" s="4">
         <v>15.299999999999997</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
+      <c r="H9" s="5">
         <v>16</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
+      <c r="I9" s="6">
         <v>23.900000000000002</v>
       </c>
       <c r="J9" t="s">
@@ -6795,27 +6732,22 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
         <v>116</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
+      <c r="E10" s="7">
         <v>12.800000000000002</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="2"/>
+      <c r="F10" s="4">
         <v>15.499999999999996</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
+      <c r="H10" s="5">
         <v>17</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
+      <c r="I10" s="6">
         <v>24.200000000000003</v>
       </c>
       <c r="J10" t="s">
@@ -6832,27 +6764,22 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D11" s="8">
         <v>124</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
+      <c r="E11" s="7">
         <v>13.200000000000003</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="2"/>
+      <c r="F11" s="4">
         <v>15.699999999999996</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
+      <c r="H11" s="5">
         <v>18</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
+      <c r="I11" s="6">
         <v>24.500000000000004</v>
       </c>
       <c r="J11" t="s">
@@ -6869,27 +6796,22 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D12" s="8">
         <v>132</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
+      <c r="E12" s="7">
         <v>13.600000000000003</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="2"/>
+      <c r="F12" s="4">
         <v>15.899999999999995</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
+      <c r="H12" s="5">
         <v>19</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
+      <c r="I12" s="6">
         <v>24.800000000000004</v>
       </c>
       <c r="J12" t="s">
@@ -6906,27 +6828,22 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
+      <c r="D13" s="8">
         <v>140</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+      <c r="E13" s="7">
         <v>14.000000000000004</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
+      <c r="F13" s="4">
         <v>16.099999999999994</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
+      <c r="H13" s="5">
         <v>20</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
+      <c r="I13" s="6">
         <v>25.100000000000005</v>
       </c>
       <c r="J13" t="s">
@@ -6943,27 +6860,22 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D14" s="8">
         <v>148</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
+      <c r="E14" s="7">
         <v>14.400000000000004</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
+      <c r="F14" s="4">
         <v>16.299999999999994</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
+      <c r="H14" s="5">
         <v>21</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
+      <c r="I14" s="6">
         <v>25.400000000000006</v>
       </c>
       <c r="J14" t="s">
@@ -6980,27 +6892,22 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D15" s="8">
         <v>156</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
+      <c r="E15" s="7">
         <v>14.800000000000004</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
+      <c r="F15" s="4">
         <v>16.499999999999993</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
+      <c r="H15" s="5">
         <v>22</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
+      <c r="I15" s="6">
         <v>25.700000000000006</v>
       </c>
       <c r="J15" t="s">
@@ -7017,27 +6924,22 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="D16" s="8">
         <v>164</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+      <c r="E16" s="7">
         <v>15.200000000000005</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
+      <c r="F16" s="4">
         <v>16.699999999999992</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
+      <c r="H16" s="5">
         <v>23</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
+      <c r="I16" s="6">
         <v>26.000000000000007</v>
       </c>
       <c r="J16" t="s">
@@ -7054,27 +6956,22 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="8">
         <v>172</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
+      <c r="E17" s="7">
         <v>15.600000000000005</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
+      <c r="F17" s="4">
         <v>16.899999999999991</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
+      <c r="H17" s="5">
         <v>24</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
+      <c r="I17" s="6">
         <v>26.300000000000008</v>
       </c>
       <c r="J17" t="s">
@@ -7091,27 +6988,22 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="D18" s="8">
         <v>180</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="E18" s="7">
         <v>16.000000000000004</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
+      <c r="F18" s="4">
         <v>17.099999999999991</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
+      <c r="H18" s="5">
         <v>25</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
+      <c r="I18" s="6">
         <v>26.600000000000009</v>
       </c>
       <c r="J18" t="s">
@@ -7128,27 +7020,22 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="D19" s="8">
         <v>188</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
+      <c r="E19" s="7">
         <v>16.400000000000002</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="2"/>
+      <c r="F19" s="4">
         <v>17.29999999999999</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
+      <c r="H19" s="5">
         <v>26</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
+      <c r="I19" s="6">
         <v>26.900000000000009</v>
       </c>
       <c r="J19" t="s">
@@ -7165,27 +7052,22 @@
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
+      <c r="D20" s="8">
         <v>196</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
+      <c r="E20" s="7">
         <v>16.8</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="2"/>
+      <c r="F20" s="4">
         <v>17.499999999999989</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
+      <c r="H20" s="5">
         <v>27</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
+      <c r="I20" s="6">
         <v>27.20000000000001</v>
       </c>
       <c r="J20" t="s">
@@ -7202,27 +7084,22 @@
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="D21" s="8">
         <v>204</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
+      <c r="E21" s="7">
         <v>17.2</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="2"/>
+      <c r="F21" s="4">
         <v>17.699999999999989</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
+      <c r="H21" s="5">
         <v>28</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
+      <c r="I21" s="6">
         <v>27.500000000000011</v>
       </c>
       <c r="J21" t="s">
@@ -7239,27 +7116,22 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
+      <c r="D22" s="8">
         <v>212</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
+      <c r="E22" s="7">
         <v>17.599999999999998</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="2"/>
+      <c r="F22" s="4">
         <v>17.899999999999988</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
+      <c r="H22" s="5">
         <v>29</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
+      <c r="I22" s="6">
         <v>27.800000000000011</v>
       </c>
       <c r="J22" t="s">
@@ -7276,27 +7148,22 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
+      <c r="D23" s="8">
         <v>220</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
+      <c r="E23" s="7">
         <v>17.999999999999996</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="2"/>
+      <c r="F23" s="4">
         <v>18.099999999999987</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
+      <c r="H23" s="5">
         <v>30</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
+      <c r="I23" s="6">
         <v>28.100000000000012</v>
       </c>
       <c r="J23" t="s">
@@ -7313,27 +7180,22 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
+      <c r="D24" s="8">
         <v>228</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
+      <c r="E24" s="7">
         <v>18.399999999999995</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="2"/>
+      <c r="F24" s="4">
         <v>18.299999999999986</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
+      <c r="H24" s="5">
         <v>31</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
+      <c r="I24" s="6">
         <v>28.400000000000013</v>
       </c>
       <c r="J24" t="s">
@@ -7350,27 +7212,22 @@
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
+      <c r="D25" s="8">
         <v>236</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
+      <c r="E25" s="7">
         <v>18.799999999999994</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="2"/>
+      <c r="F25" s="4">
         <v>18.499999999999986</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
+      <c r="H25" s="5">
         <v>32</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
+      <c r="I25" s="6">
         <v>28.700000000000014</v>
       </c>
       <c r="J25" t="s">
@@ -7387,27 +7244,22 @@
       <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
+      <c r="D26" s="8">
         <v>244</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
+      <c r="E26" s="7">
         <v>19.199999999999992</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="2"/>
+      <c r="F26" s="4">
         <v>18.699999999999985</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
+      <c r="H26" s="5">
         <v>33</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
+      <c r="I26" s="6">
         <v>29.000000000000014</v>
       </c>
       <c r="J26" t="s">
@@ -7456,26 +7308,22 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31">
-        <f>D30+6</f>
+      <c r="D31" s="9">
         <v>36</v>
       </c>
-      <c r="E31">
-        <f>E30+0.8</f>
+      <c r="E31" s="9">
         <v>20.8</v>
       </c>
-      <c r="F31">
-        <f>F30+0.3</f>
+      <c r="F31" s="9">
         <v>16.3</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="9">
         <v>2</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="9">
         <v>31</v>
       </c>
-      <c r="I31">
-        <f>I30+1</f>
+      <c r="I31" s="9">
         <v>36</v>
       </c>
       <c r="J31" t="s">
@@ -7492,26 +7340,22 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32">
-        <f t="shared" ref="D32:D53" si="5">D31+6</f>
+      <c r="D32" s="9">
         <v>42</v>
       </c>
-      <c r="E32">
-        <f t="shared" ref="E32:E53" si="6">E31+0.8</f>
+      <c r="E32" s="9">
         <v>21.6</v>
       </c>
-      <c r="F32">
-        <f t="shared" ref="F32:F53" si="7">F31+0.3</f>
+      <c r="F32" s="9">
         <v>16.600000000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="9">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="9">
         <v>32</v>
       </c>
-      <c r="I32">
-        <f t="shared" ref="I32:I53" si="8">I31+1</f>
+      <c r="I32" s="9">
         <v>37</v>
       </c>
       <c r="J32" t="s">
@@ -7528,26 +7372,22 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
+      <c r="D33" s="9">
         <v>48</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="6"/>
+      <c r="E33" s="9">
         <v>22.400000000000002</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="7"/>
+      <c r="F33" s="9">
         <v>16.900000000000002</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="9">
         <v>2</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="9">
         <v>33</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="8"/>
+      <c r="I33" s="9">
         <v>38</v>
       </c>
       <c r="J33" t="s">
@@ -7564,26 +7404,22 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="5"/>
+      <c r="D34" s="9">
         <v>54</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="6"/>
+      <c r="E34" s="9">
         <v>23.200000000000003</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="7"/>
+      <c r="F34" s="9">
         <v>17.200000000000003</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="9">
         <v>2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="9">
         <v>34</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="8"/>
+      <c r="I34" s="9">
         <v>39</v>
       </c>
       <c r="J34" t="s">
@@ -7600,26 +7436,22 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="5"/>
+      <c r="D35" s="9">
         <v>60</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="6"/>
+      <c r="E35" s="9">
         <v>24.000000000000004</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
+      <c r="F35" s="9">
         <v>17.500000000000004</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="9">
         <v>2</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="9">
         <v>35</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="8"/>
+      <c r="I35" s="9">
         <v>40</v>
       </c>
       <c r="J35" t="s">
@@ -7636,26 +7468,22 @@
       <c r="C36">
         <v>7</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="5"/>
+      <c r="D36" s="9">
         <v>66</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="6"/>
+      <c r="E36" s="9">
         <v>24.800000000000004</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="7"/>
+      <c r="F36" s="9">
         <v>17.800000000000004</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="9">
         <v>2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="9">
         <v>36</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="8"/>
+      <c r="I36" s="9">
         <v>41</v>
       </c>
       <c r="J36" t="s">
@@ -7672,26 +7500,22 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="5"/>
+      <c r="D37" s="9">
         <v>72</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="6"/>
+      <c r="E37" s="9">
         <v>25.600000000000005</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="7"/>
+      <c r="F37" s="9">
         <v>18.100000000000005</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="9">
         <v>2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="9">
         <v>37</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="8"/>
+      <c r="I37" s="9">
         <v>42</v>
       </c>
       <c r="J37" t="s">
@@ -7708,26 +7532,22 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="5"/>
+      <c r="D38" s="9">
         <v>78</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="6"/>
+      <c r="E38" s="9">
         <v>26.400000000000006</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="7"/>
+      <c r="F38" s="9">
         <v>18.400000000000006</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="9">
         <v>2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="9">
         <v>38</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="8"/>
+      <c r="I38" s="9">
         <v>43</v>
       </c>
       <c r="J38" t="s">
@@ -7744,26 +7564,22 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="5"/>
+      <c r="D39" s="9">
         <v>84</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="6"/>
+      <c r="E39" s="9">
         <v>27.200000000000006</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="7"/>
+      <c r="F39" s="9">
         <v>18.700000000000006</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="9">
         <v>39</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="8"/>
+      <c r="I39" s="9">
         <v>44</v>
       </c>
       <c r="J39" t="s">
@@ -7780,26 +7596,22 @@
       <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="5"/>
+      <c r="D40" s="9">
         <v>90</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="6"/>
+      <c r="E40" s="9">
         <v>28.000000000000007</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="7"/>
+      <c r="F40" s="9">
         <v>19.000000000000007</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="9">
         <v>2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="9">
         <v>40</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="8"/>
+      <c r="I40" s="9">
         <v>45</v>
       </c>
       <c r="J40" t="s">
@@ -7816,26 +7628,22 @@
       <c r="C41">
         <v>12</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="5"/>
+      <c r="D41" s="9">
         <v>96</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="6"/>
+      <c r="E41" s="9">
         <v>28.800000000000008</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="7"/>
+      <c r="F41" s="9">
         <v>19.300000000000008</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="9">
         <v>2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="9">
         <v>41</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="8"/>
+      <c r="I41" s="9">
         <v>46</v>
       </c>
       <c r="J41" t="s">
@@ -7852,26 +7660,22 @@
       <c r="C42">
         <v>13</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="5"/>
+      <c r="D42" s="9">
         <v>102</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="6"/>
+      <c r="E42" s="9">
         <v>29.600000000000009</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="7"/>
+      <c r="F42" s="9">
         <v>19.600000000000009</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="9">
         <v>2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="9">
         <v>42</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="8"/>
+      <c r="I42" s="9">
         <v>47</v>
       </c>
       <c r="J42" t="s">
@@ -7888,26 +7692,22 @@
       <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="5"/>
+      <c r="D43" s="9">
         <v>108</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="6"/>
+      <c r="E43" s="9">
         <v>30.400000000000009</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="7"/>
+      <c r="F43" s="9">
         <v>19.900000000000009</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="9">
         <v>2</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="9">
         <v>43</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="8"/>
+      <c r="I43" s="9">
         <v>48</v>
       </c>
       <c r="J43" t="s">
@@ -7924,26 +7724,22 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="5"/>
+      <c r="D44" s="9">
         <v>114</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="6"/>
+      <c r="E44" s="9">
         <v>31.20000000000001</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="7"/>
+      <c r="F44" s="9">
         <v>20.20000000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="9">
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="9">
         <v>44</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="8"/>
+      <c r="I44" s="9">
         <v>49</v>
       </c>
       <c r="J44" t="s">
@@ -7960,26 +7756,22 @@
       <c r="C45">
         <v>16</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="5"/>
+      <c r="D45" s="9">
         <v>120</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="6"/>
+      <c r="E45" s="9">
         <v>32.000000000000007</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="7"/>
+      <c r="F45" s="9">
         <v>20.500000000000011</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="9">
         <v>2</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="9">
         <v>45</v>
       </c>
-      <c r="I45">
-        <f>I44+1</f>
+      <c r="I45" s="9">
         <v>50</v>
       </c>
       <c r="J45" t="s">
@@ -7996,26 +7788,22 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="5"/>
+      <c r="D46" s="9">
         <v>126</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="6"/>
+      <c r="E46" s="9">
         <v>32.800000000000004</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="7"/>
+      <c r="F46" s="9">
         <v>20.800000000000011</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="9">
         <v>2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="9">
         <v>46</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="8"/>
+      <c r="I46" s="9">
         <v>51</v>
       </c>
       <c r="J46" t="s">
@@ -8032,26 +7820,22 @@
       <c r="C47">
         <v>18</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="5"/>
+      <c r="D47" s="9">
         <v>132</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="6"/>
+      <c r="E47" s="9">
         <v>33.6</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="7"/>
+      <c r="F47" s="9">
         <v>21.100000000000012</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="9">
         <v>2</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="9">
         <v>47</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="8"/>
+      <c r="I47" s="9">
         <v>52</v>
       </c>
       <c r="J47" t="s">
@@ -8068,26 +7852,22 @@
       <c r="C48">
         <v>19</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="5"/>
+      <c r="D48" s="9">
         <v>138</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="6"/>
+      <c r="E48" s="9">
         <v>34.4</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="7"/>
+      <c r="F48" s="9">
         <v>21.400000000000013</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="9">
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="9">
         <v>48</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="8"/>
+      <c r="I48" s="9">
         <v>53</v>
       </c>
       <c r="J48" t="s">
@@ -8104,26 +7884,22 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="5"/>
+      <c r="D49" s="9">
         <v>144</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="6"/>
+      <c r="E49" s="9">
         <v>35.199999999999996</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="7"/>
+      <c r="F49" s="9">
         <v>21.700000000000014</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="9">
         <v>2</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="9">
         <v>49</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="8"/>
+      <c r="I49" s="9">
         <v>54</v>
       </c>
       <c r="J49" t="s">
@@ -8140,26 +7916,22 @@
       <c r="C50">
         <v>21</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="5"/>
+      <c r="D50" s="9">
         <v>150</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="6"/>
+      <c r="E50" s="9">
         <v>35.999999999999993</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="7"/>
+      <c r="F50" s="9">
         <v>22.000000000000014</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="9">
         <v>2</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="9">
         <v>50</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="8"/>
+      <c r="I50" s="9">
         <v>55</v>
       </c>
       <c r="J50" t="s">
@@ -8176,26 +7948,22 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="5"/>
+      <c r="D51" s="9">
         <v>156</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="6"/>
+      <c r="E51" s="9">
         <v>36.79999999999999</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="7"/>
+      <c r="F51" s="9">
         <v>22.300000000000015</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="9">
         <v>2</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="9">
         <v>51</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="8"/>
+      <c r="I51" s="9">
         <v>56</v>
       </c>
       <c r="J51" t="s">
@@ -8212,26 +7980,22 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="5"/>
+      <c r="D52" s="9">
         <v>162</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="6"/>
+      <c r="E52" s="9">
         <v>37.599999999999987</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="7"/>
+      <c r="F52" s="9">
         <v>22.600000000000016</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="9">
         <v>2</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="9">
         <v>52</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="8"/>
+      <c r="I52" s="9">
         <v>57</v>
       </c>
       <c r="J52" t="s">
@@ -8248,26 +8012,22 @@
       <c r="C53">
         <v>24</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="5"/>
+      <c r="D53" s="9">
         <v>168</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="6"/>
+      <c r="E53" s="9">
         <v>38.399999999999984</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="7"/>
+      <c r="F53" s="9">
         <v>22.900000000000016</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="9">
         <v>2</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="9">
         <v>53</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="8"/>
+      <c r="I53" s="9">
         <v>58</v>
       </c>
       <c r="J53" t="s">
@@ -8316,27 +8076,22 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61">
-        <f>D60+10</f>
+      <c r="D61" s="10">
         <v>90</v>
       </c>
-      <c r="E61">
-        <f>E60+0.4</f>
+      <c r="E61" s="10">
         <v>8.4</v>
       </c>
-      <c r="F61">
-        <f>F60+2</f>
+      <c r="F61" s="10">
         <v>52</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="10">
         <v>5</v>
       </c>
-      <c r="H61">
-        <f>H60+0.4</f>
+      <c r="H61" s="10">
         <v>10.4</v>
       </c>
-      <c r="I61">
-        <f>I60+0.4</f>
+      <c r="I61" s="10">
         <v>18.399999999999999</v>
       </c>
       <c r="J61" t="s">
@@ -8353,27 +8108,22 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62">
-        <f t="shared" ref="D62:D84" si="9">D61+10</f>
+      <c r="D62" s="10">
         <v>100</v>
       </c>
-      <c r="E62">
-        <f t="shared" ref="E62:E83" si="10">E61+0.4</f>
+      <c r="E62" s="10">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F62">
-        <f t="shared" ref="F62:F83" si="11">F61+2</f>
+      <c r="F62" s="10">
         <v>54</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="10">
         <v>5</v>
       </c>
-      <c r="H62">
-        <f t="shared" ref="H62:H83" si="12">H61+0.4</f>
+      <c r="H62" s="10">
         <v>10.8</v>
       </c>
-      <c r="I62">
-        <f t="shared" ref="I62:I83" si="13">I61+0.4</f>
+      <c r="I62" s="10">
         <v>18.799999999999997</v>
       </c>
       <c r="J62" t="s">
@@ -8390,27 +8140,22 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="9"/>
+      <c r="D63" s="10">
         <v>110</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="10"/>
+      <c r="E63" s="10">
         <v>9.2000000000000011</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="11"/>
+      <c r="F63" s="10">
         <v>56</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="10">
         <v>5</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="12"/>
+      <c r="H63" s="10">
         <v>11.200000000000001</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="13"/>
+      <c r="I63" s="10">
         <v>19.199999999999996</v>
       </c>
       <c r="J63" t="s">
@@ -8427,27 +8172,22 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="9"/>
+      <c r="D64" s="10">
         <v>120</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="10"/>
+      <c r="E64" s="10">
         <v>9.6000000000000014</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="11"/>
+      <c r="F64" s="10">
         <v>58</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="10">
         <v>5</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="12"/>
+      <c r="H64" s="10">
         <v>11.600000000000001</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="13"/>
+      <c r="I64" s="10">
         <v>19.599999999999994</v>
       </c>
       <c r="J64" t="s">
@@ -8464,27 +8204,22 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="9"/>
+      <c r="D65" s="10">
         <v>130</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="10"/>
+      <c r="E65" s="10">
         <v>10.000000000000002</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="11"/>
+      <c r="F65" s="10">
         <v>60</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="10">
         <v>5</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="12"/>
+      <c r="H65" s="10">
         <v>12.000000000000002</v>
       </c>
-      <c r="I65">
-        <f t="shared" si="13"/>
+      <c r="I65" s="10">
         <v>19.999999999999993</v>
       </c>
       <c r="J65" t="s">
@@ -8501,27 +8236,22 @@
       <c r="C66">
         <v>7</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="9"/>
+      <c r="D66" s="10">
         <v>140</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="10"/>
+      <c r="E66" s="10">
         <v>10.400000000000002</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="11"/>
+      <c r="F66" s="10">
         <v>62</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="10">
         <v>5</v>
       </c>
-      <c r="H66">
-        <f t="shared" si="12"/>
+      <c r="H66" s="10">
         <v>12.400000000000002</v>
       </c>
-      <c r="I66">
-        <f t="shared" si="13"/>
+      <c r="I66" s="10">
         <v>20.399999999999991</v>
       </c>
       <c r="J66" t="s">
@@ -8538,27 +8268,22 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="9"/>
+      <c r="D67" s="10">
         <v>150</v>
       </c>
-      <c r="E67">
-        <f t="shared" si="10"/>
+      <c r="E67" s="10">
         <v>10.800000000000002</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="11"/>
+      <c r="F67" s="10">
         <v>64</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="10">
         <v>5</v>
       </c>
-      <c r="H67">
-        <f t="shared" si="12"/>
+      <c r="H67" s="10">
         <v>12.800000000000002</v>
       </c>
-      <c r="I67">
-        <f t="shared" si="13"/>
+      <c r="I67" s="10">
         <v>20.79999999999999</v>
       </c>
       <c r="J67" t="s">
@@ -8575,27 +8300,22 @@
       <c r="C68">
         <v>9</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="9"/>
+      <c r="D68" s="10">
         <v>160</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="10"/>
+      <c r="E68" s="10">
         <v>11.200000000000003</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="11"/>
+      <c r="F68" s="10">
         <v>66</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="10">
         <v>5</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="12"/>
+      <c r="H68" s="10">
         <v>13.200000000000003</v>
       </c>
-      <c r="I68">
-        <f t="shared" si="13"/>
+      <c r="I68" s="10">
         <v>21.199999999999989</v>
       </c>
       <c r="J68" t="s">
@@ -8612,27 +8332,22 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="9"/>
+      <c r="D69" s="10">
         <v>170</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="10"/>
+      <c r="E69" s="10">
         <v>11.600000000000003</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="11"/>
+      <c r="F69" s="10">
         <v>68</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="10">
         <v>5</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="12"/>
+      <c r="H69" s="10">
         <v>13.600000000000003</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="13"/>
+      <c r="I69" s="10">
         <v>21.599999999999987</v>
       </c>
       <c r="J69" t="s">
@@ -8649,27 +8364,22 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="9"/>
+      <c r="D70" s="10">
         <v>180</v>
       </c>
-      <c r="E70">
-        <f t="shared" si="10"/>
+      <c r="E70" s="10">
         <v>12.000000000000004</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="11"/>
+      <c r="F70" s="10">
         <v>70</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="10">
         <v>5</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="12"/>
+      <c r="H70" s="10">
         <v>14.000000000000004</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="13"/>
+      <c r="I70" s="10">
         <v>21.999999999999986</v>
       </c>
       <c r="J70" t="s">
@@ -8686,27 +8396,22 @@
       <c r="C71">
         <v>12</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="9"/>
+      <c r="D71" s="10">
         <v>190</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="10"/>
+      <c r="E71" s="10">
         <v>12.400000000000004</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="11"/>
+      <c r="F71" s="10">
         <v>72</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="10">
         <v>5</v>
       </c>
-      <c r="H71">
-        <f t="shared" si="12"/>
+      <c r="H71" s="10">
         <v>14.400000000000004</v>
       </c>
-      <c r="I71">
-        <f t="shared" si="13"/>
+      <c r="I71" s="10">
         <v>22.399999999999984</v>
       </c>
       <c r="J71" t="s">
@@ -8723,27 +8428,22 @@
       <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="9"/>
+      <c r="D72" s="10">
         <v>200</v>
       </c>
-      <c r="E72">
-        <f t="shared" si="10"/>
+      <c r="E72" s="10">
         <v>12.800000000000004</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="11"/>
+      <c r="F72" s="10">
         <v>74</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="10">
         <v>5</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="12"/>
+      <c r="H72" s="10">
         <v>14.800000000000004</v>
       </c>
-      <c r="I72">
-        <f t="shared" si="13"/>
+      <c r="I72" s="10">
         <v>22.799999999999983</v>
       </c>
       <c r="J72" t="s">
@@ -8760,27 +8460,22 @@
       <c r="C73">
         <v>14</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="9"/>
+      <c r="D73" s="10">
         <v>210</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="10"/>
+      <c r="E73" s="10">
         <v>13.200000000000005</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="11"/>
+      <c r="F73" s="10">
         <v>76</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="10">
         <v>5</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="12"/>
+      <c r="H73" s="10">
         <v>15.200000000000005</v>
       </c>
-      <c r="I73">
-        <f t="shared" si="13"/>
+      <c r="I73" s="10">
         <v>23.199999999999982</v>
       </c>
       <c r="J73" t="s">
@@ -8797,27 +8492,22 @@
       <c r="C74">
         <v>15</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="9"/>
+      <c r="D74" s="10">
         <v>220</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="10"/>
+      <c r="E74" s="10">
         <v>13.600000000000005</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="11"/>
+      <c r="F74" s="10">
         <v>78</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="10">
         <v>5</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="12"/>
+      <c r="H74" s="10">
         <v>15.600000000000005</v>
       </c>
-      <c r="I74">
-        <f t="shared" si="13"/>
+      <c r="I74" s="10">
         <v>23.59999999999998</v>
       </c>
       <c r="J74" t="s">
@@ -8834,27 +8524,22 @@
       <c r="C75">
         <v>16</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="9"/>
+      <c r="D75" s="10">
         <v>230</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="10"/>
+      <c r="E75" s="10">
         <v>14.000000000000005</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="11"/>
+      <c r="F75" s="10">
         <v>80</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="10">
         <v>5</v>
       </c>
-      <c r="H75">
-        <f t="shared" si="12"/>
+      <c r="H75" s="10">
         <v>16.000000000000004</v>
       </c>
-      <c r="I75">
-        <f t="shared" si="13"/>
+      <c r="I75" s="10">
         <v>23.999999999999979</v>
       </c>
       <c r="J75" t="s">
@@ -8871,27 +8556,22 @@
       <c r="C76">
         <v>17</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="9"/>
+      <c r="D76" s="10">
         <v>240</v>
       </c>
-      <c r="E76">
-        <f t="shared" si="10"/>
+      <c r="E76" s="10">
         <v>14.400000000000006</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="11"/>
+      <c r="F76" s="10">
         <v>82</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="10">
         <v>5</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="12"/>
+      <c r="H76" s="10">
         <v>16.400000000000002</v>
       </c>
-      <c r="I76">
-        <f t="shared" si="13"/>
+      <c r="I76" s="10">
         <v>24.399999999999977</v>
       </c>
       <c r="J76" t="s">
@@ -8908,27 +8588,22 @@
       <c r="C77">
         <v>18</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="9"/>
+      <c r="D77" s="10">
         <v>250</v>
       </c>
-      <c r="E77">
-        <f t="shared" si="10"/>
+      <c r="E77" s="10">
         <v>14.800000000000006</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="11"/>
+      <c r="F77" s="10">
         <v>84</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="10">
         <v>5</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="12"/>
+      <c r="H77" s="10">
         <v>16.8</v>
       </c>
-      <c r="I77">
-        <f t="shared" si="13"/>
+      <c r="I77" s="10">
         <v>24.799999999999976</v>
       </c>
       <c r="J77" t="s">
@@ -8945,27 +8620,22 @@
       <c r="C78">
         <v>19</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="9"/>
+      <c r="D78" s="10">
         <v>260</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="10"/>
+      <c r="E78" s="10">
         <v>15.200000000000006</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="11"/>
+      <c r="F78" s="10">
         <v>86</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="10">
         <v>5</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="12"/>
+      <c r="H78" s="10">
         <v>17.2</v>
       </c>
-      <c r="I78">
-        <f t="shared" si="13"/>
+      <c r="I78" s="10">
         <v>25.199999999999974</v>
       </c>
       <c r="J78" t="s">
@@ -8982,27 +8652,22 @@
       <c r="C79">
         <v>20</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="9"/>
+      <c r="D79" s="10">
         <v>270</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="10"/>
+      <c r="E79" s="10">
         <v>15.600000000000007</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="11"/>
+      <c r="F79" s="10">
         <v>88</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="10">
         <v>5</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="12"/>
+      <c r="H79" s="10">
         <v>17.599999999999998</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="13"/>
+      <c r="I79" s="10">
         <v>25.599999999999973</v>
       </c>
       <c r="J79" t="s">
@@ -9019,27 +8684,22 @@
       <c r="C80">
         <v>21</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="9"/>
+      <c r="D80" s="10">
         <v>280</v>
       </c>
-      <c r="E80">
-        <f t="shared" si="10"/>
+      <c r="E80" s="10">
         <v>16.000000000000007</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="11"/>
+      <c r="F80" s="10">
         <v>90</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="10">
         <v>5</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="12"/>
+      <c r="H80" s="10">
         <v>17.999999999999996</v>
       </c>
-      <c r="I80">
-        <f t="shared" si="13"/>
+      <c r="I80" s="10">
         <v>25.999999999999972</v>
       </c>
       <c r="J80" t="s">
@@ -9056,27 +8716,22 @@
       <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="9"/>
+      <c r="D81" s="10">
         <v>290</v>
       </c>
-      <c r="E81">
-        <f t="shared" si="10"/>
+      <c r="E81" s="10">
         <v>16.400000000000006</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="11"/>
+      <c r="F81" s="10">
         <v>92</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="10">
         <v>5</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="12"/>
+      <c r="H81" s="10">
         <v>18.399999999999995</v>
       </c>
-      <c r="I81">
-        <f t="shared" si="13"/>
+      <c r="I81" s="10">
         <v>26.39999999999997</v>
       </c>
       <c r="J81" t="s">
@@ -9093,27 +8748,22 @@
       <c r="C82">
         <v>23</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="9"/>
+      <c r="D82" s="10">
         <v>300</v>
       </c>
-      <c r="E82">
-        <f t="shared" si="10"/>
+      <c r="E82" s="10">
         <v>16.800000000000004</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="11"/>
+      <c r="F82" s="10">
         <v>94</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="10">
         <v>5</v>
       </c>
-      <c r="H82">
-        <f t="shared" si="12"/>
+      <c r="H82" s="10">
         <v>18.799999999999994</v>
       </c>
-      <c r="I82">
-        <f t="shared" si="13"/>
+      <c r="I82" s="10">
         <v>26.799999999999969</v>
       </c>
       <c r="J82" t="s">
@@ -9130,27 +8780,22 @@
       <c r="C83">
         <v>24</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="9"/>
+      <c r="D83" s="10">
         <v>310</v>
       </c>
-      <c r="E83">
-        <f t="shared" si="10"/>
+      <c r="E83" s="10">
         <v>17.200000000000003</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="11"/>
+      <c r="F83" s="10">
         <v>96</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="10">
         <v>5</v>
       </c>
-      <c r="H83">
-        <f t="shared" si="12"/>
+      <c r="H83" s="10">
         <v>19.199999999999992</v>
       </c>
-      <c r="I83">
-        <f t="shared" si="13"/>
+      <c r="I83" s="10">
         <v>27.199999999999967</v>
       </c>
       <c r="J83" t="s">
@@ -9158,8 +8803,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9239,7 +8885,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9249,7 +8895,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9473,7 +9119,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9574,7 +9220,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="5"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -3789,8 +3789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6421,7 +6421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>

--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -1613,6 +1613,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1690,7 +1693,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -1700,12 +1703,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2096,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2166,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2185,7 +2189,7 @@
         <v>24</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -2208,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -2231,7 +2235,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -2254,7 +2258,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -2277,7 +2281,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -2300,7 +2304,7 @@
         <v>41</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>25</v>
@@ -2323,7 +2327,7 @@
         <v>44</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -2346,7 +2350,7 @@
         <v>47</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
@@ -2369,7 +2373,7 @@
         <v>51</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
@@ -2392,7 +2396,7 @@
         <v>55</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -2415,7 +2419,7 @@
         <v>59</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
@@ -2438,7 +2442,7 @@
         <v>63</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
@@ -2461,7 +2465,7 @@
         <v>67</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -2484,7 +2488,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -2507,7 +2511,7 @@
         <v>75</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>76</v>
@@ -3789,8 +3793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5403,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>256</v>
       </c>
@@ -5413,11 +5417,17 @@
       <c r="C89" t="s">
         <v>154</v>
       </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
       <c r="E89">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>257</v>
       </c>
@@ -5427,11 +5437,17 @@
       <c r="C90" t="s">
         <v>155</v>
       </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -5441,11 +5457,17 @@
       <c r="C91" t="s">
         <v>164</v>
       </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
       <c r="E91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>259</v>
       </c>
@@ -5455,11 +5477,17 @@
       <c r="C92" t="s">
         <v>154</v>
       </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
       <c r="E92">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>260</v>
       </c>
@@ -5469,11 +5497,17 @@
       <c r="C93" t="s">
         <v>155</v>
       </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
       <c r="E93">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>261</v>
       </c>
@@ -5483,11 +5517,17 @@
       <c r="C94" t="s">
         <v>164</v>
       </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
       <c r="E94">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>262</v>
       </c>
@@ -5497,11 +5537,17 @@
       <c r="C95" t="s">
         <v>154</v>
       </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
       <c r="E95">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>263</v>
       </c>
@@ -5511,11 +5557,17 @@
       <c r="C96" t="s">
         <v>155</v>
       </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
       <c r="E96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>264</v>
       </c>
@@ -5525,11 +5577,17 @@
       <c r="C97" t="s">
         <v>164</v>
       </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
       <c r="E97">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>265</v>
       </c>
@@ -5539,11 +5597,17 @@
       <c r="C98" t="s">
         <v>154</v>
       </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
       <c r="E98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>266</v>
       </c>
@@ -5553,11 +5617,17 @@
       <c r="C99" t="s">
         <v>155</v>
       </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
       <c r="E99">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>267</v>
       </c>
@@ -5567,11 +5637,17 @@
       <c r="C100" t="s">
         <v>164</v>
       </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
       <c r="E100">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>268</v>
       </c>
@@ -5581,11 +5657,17 @@
       <c r="C101" t="s">
         <v>154</v>
       </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
       <c r="E101">
         <v>10</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>269</v>
       </c>
@@ -5595,11 +5677,17 @@
       <c r="C102" t="s">
         <v>155</v>
       </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
       <c r="E102">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>270</v>
       </c>
@@ -5609,11 +5697,17 @@
       <c r="C103" t="s">
         <v>164</v>
       </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
       <c r="E103">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>271</v>
       </c>
@@ -5623,11 +5717,17 @@
       <c r="C104" t="s">
         <v>154</v>
       </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
       <c r="E104">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>272</v>
       </c>
@@ -5637,11 +5737,17 @@
       <c r="C105" t="s">
         <v>155</v>
       </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
       <c r="E105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>273</v>
       </c>
@@ -5651,11 +5757,17 @@
       <c r="C106" t="s">
         <v>164</v>
       </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
       <c r="E106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>274</v>
       </c>
@@ -5665,11 +5777,17 @@
       <c r="C107" t="s">
         <v>154</v>
       </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
       <c r="E107">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>275</v>
       </c>
@@ -5679,11 +5797,17 @@
       <c r="C108" t="s">
         <v>155</v>
       </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
       <c r="E108">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>276</v>
       </c>
@@ -5693,11 +5817,17 @@
       <c r="C109" t="s">
         <v>344</v>
       </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
       <c r="E109">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>277</v>
       </c>
@@ -5707,11 +5837,17 @@
       <c r="C110" t="s">
         <v>154</v>
       </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
       <c r="E110">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>278</v>
       </c>
@@ -5721,11 +5857,17 @@
       <c r="C111" t="s">
         <v>155</v>
       </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
       <c r="E111">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>279</v>
       </c>
@@ -5735,11 +5877,17 @@
       <c r="C112" t="s">
         <v>164</v>
       </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
       <c r="E112">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>280</v>
       </c>
@@ -5749,11 +5897,17 @@
       <c r="C113" t="s">
         <v>154</v>
       </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
       <c r="E113">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>281</v>
       </c>
@@ -5763,11 +5917,17 @@
       <c r="C114" t="s">
         <v>155</v>
       </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
       <c r="E114">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -5777,11 +5937,17 @@
       <c r="C115" t="s">
         <v>164</v>
       </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
       <c r="E115">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>283</v>
       </c>
@@ -5791,11 +5957,17 @@
       <c r="C116" t="s">
         <v>154</v>
       </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
       <c r="E116">
         <v>12</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>284</v>
       </c>
@@ -5805,11 +5977,17 @@
       <c r="C117" t="s">
         <v>155</v>
       </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
       <c r="E117">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>285</v>
       </c>
@@ -5819,11 +5997,17 @@
       <c r="C118" t="s">
         <v>164</v>
       </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
       <c r="E118">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>286</v>
       </c>
@@ -5833,11 +6017,17 @@
       <c r="C119" t="s">
         <v>154</v>
       </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
       <c r="E119">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>287</v>
       </c>
@@ -5847,11 +6037,17 @@
       <c r="C120" t="s">
         <v>155</v>
       </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
       <c r="E120">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>288</v>
       </c>
@@ -5861,11 +6057,17 @@
       <c r="C121" t="s">
         <v>164</v>
       </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
       <c r="E121">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>289</v>
       </c>
@@ -5875,11 +6077,17 @@
       <c r="C122" t="s">
         <v>154</v>
       </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
       <c r="E122">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>290</v>
       </c>
@@ -5889,11 +6097,17 @@
       <c r="C123" t="s">
         <v>155</v>
       </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
       <c r="E123">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>291</v>
       </c>
@@ -5903,11 +6117,17 @@
       <c r="C124" t="s">
         <v>164</v>
       </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
       <c r="E124">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>292</v>
       </c>
@@ -5917,11 +6137,17 @@
       <c r="C125" t="s">
         <v>154</v>
       </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
       <c r="E125">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>293</v>
       </c>
@@ -5931,11 +6157,17 @@
       <c r="C126" t="s">
         <v>155</v>
       </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
       <c r="E126">
         <v>13</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>294</v>
       </c>
@@ -5945,11 +6177,17 @@
       <c r="C127" t="s">
         <v>164</v>
       </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
       <c r="E127">
         <v>13</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>295</v>
       </c>
@@ -5959,11 +6197,17 @@
       <c r="C128" t="s">
         <v>154</v>
       </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
       <c r="E128">
         <v>13</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>296</v>
       </c>
@@ -5973,11 +6217,17 @@
       <c r="C129" t="s">
         <v>155</v>
       </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
       <c r="E129">
         <v>13</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>297</v>
       </c>
@@ -5987,11 +6237,17 @@
       <c r="C130" t="s">
         <v>164</v>
       </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
       <c r="E130">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>298</v>
       </c>
@@ -6001,11 +6257,17 @@
       <c r="C131" t="s">
         <v>154</v>
       </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
       <c r="E131">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>299</v>
       </c>
@@ -6015,11 +6277,17 @@
       <c r="C132" t="s">
         <v>155</v>
       </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
       <c r="E132">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>300</v>
       </c>
@@ -6029,11 +6297,17 @@
       <c r="C133" t="s">
         <v>164</v>
       </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
       <c r="E133">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>301</v>
       </c>
@@ -6043,11 +6317,17 @@
       <c r="C134" t="s">
         <v>154</v>
       </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
       <c r="E134">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>302</v>
       </c>
@@ -6057,11 +6337,17 @@
       <c r="C135" t="s">
         <v>155</v>
       </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
       <c r="E135">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>303</v>
       </c>
@@ -6071,11 +6357,17 @@
       <c r="C136" t="s">
         <v>164</v>
       </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
       <c r="E136">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>304</v>
       </c>
@@ -6085,11 +6377,17 @@
       <c r="C137" t="s">
         <v>154</v>
       </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
       <c r="E137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>305</v>
       </c>
@@ -6099,11 +6397,17 @@
       <c r="C138" t="s">
         <v>155</v>
       </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
       <c r="E138">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>306</v>
       </c>
@@ -6113,11 +6417,17 @@
       <c r="C139" t="s">
         <v>164</v>
       </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
       <c r="E139">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>307</v>
       </c>
@@ -6127,11 +6437,17 @@
       <c r="C140" t="s">
         <v>154</v>
       </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
       <c r="E140">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>308</v>
       </c>
@@ -6141,11 +6457,17 @@
       <c r="C141" t="s">
         <v>155</v>
       </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
       <c r="E141">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>309</v>
       </c>
@@ -6155,11 +6477,17 @@
       <c r="C142" t="s">
         <v>164</v>
       </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
       <c r="E142">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>310</v>
       </c>
@@ -6169,11 +6497,17 @@
       <c r="C143" t="s">
         <v>154</v>
       </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
       <c r="E143">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>311</v>
       </c>
@@ -6183,11 +6517,17 @@
       <c r="C144" t="s">
         <v>155</v>
       </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
       <c r="E144">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>312</v>
       </c>
@@ -6197,11 +6537,17 @@
       <c r="C145" t="s">
         <v>164</v>
       </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
       <c r="E145">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>313</v>
       </c>
@@ -6211,11 +6557,17 @@
       <c r="C146" t="s">
         <v>154</v>
       </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
       <c r="E146">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>314</v>
       </c>
@@ -6225,11 +6577,17 @@
       <c r="C147" t="s">
         <v>155</v>
       </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
       <c r="E147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>315</v>
       </c>
@@ -6239,11 +6597,17 @@
       <c r="C148" t="s">
         <v>164</v>
       </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
       <c r="E148">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>316</v>
       </c>
@@ -6253,11 +6617,17 @@
       <c r="C149" t="s">
         <v>154</v>
       </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
       <c r="E149">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>317</v>
       </c>
@@ -6267,11 +6637,17 @@
       <c r="C150" t="s">
         <v>155</v>
       </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
       <c r="E150">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>318</v>
       </c>
@@ -6281,11 +6657,17 @@
       <c r="C151" t="s">
         <v>164</v>
       </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
       <c r="E151">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>319</v>
       </c>
@@ -6295,11 +6677,17 @@
       <c r="C152" t="s">
         <v>154</v>
       </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
       <c r="E152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>320</v>
       </c>
@@ -6309,11 +6697,17 @@
       <c r="C153" t="s">
         <v>155</v>
       </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
       <c r="E153">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>321</v>
       </c>
@@ -6323,11 +6717,17 @@
       <c r="C154" t="s">
         <v>164</v>
       </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
       <c r="E154">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>322</v>
       </c>
@@ -6337,11 +6737,17 @@
       <c r="C155" t="s">
         <v>154</v>
       </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
       <c r="E155">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>323</v>
       </c>
@@ -6351,11 +6757,17 @@
       <c r="C156" t="s">
         <v>155</v>
       </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
       <c r="E156">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>324</v>
       </c>
@@ -6365,11 +6777,17 @@
       <c r="C157" t="s">
         <v>164</v>
       </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
       <c r="E157">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>325</v>
       </c>
@@ -6379,11 +6797,17 @@
       <c r="C158" t="s">
         <v>154</v>
       </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
       <c r="E158">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>326</v>
       </c>
@@ -6393,11 +6817,17 @@
       <c r="C159" t="s">
         <v>155</v>
       </c>
+      <c r="D159">
+        <v>1</v>
+      </c>
       <c r="E159">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>327</v>
       </c>
@@ -6407,8 +6837,14 @@
       <c r="C160" t="s">
         <v>164</v>
       </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
       <c r="E160">
         <v>16</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6422,7 +6858,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6511,10 +6947,10 @@
       <c r="D3">
         <v>60</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <v>14</v>
       </c>
       <c r="G3">
@@ -6540,22 +6976,22 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>68</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>10.4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>14.3</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>11</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>22.4</v>
       </c>
       <c r="J4" t="s">
@@ -6572,22 +7008,22 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>76</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>10.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>14.5</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>12</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>22.7</v>
       </c>
       <c r="J5" t="s">
@@ -6604,22 +7040,22 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>84</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="11">
         <v>11.200000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>14.7</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>13</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>23</v>
       </c>
       <c r="J6" t="s">
@@ -6636,22 +7072,22 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>92</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>11.600000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="10">
         <v>14.899999999999999</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>14</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>23.3</v>
       </c>
       <c r="J7" t="s">
@@ -6668,22 +7104,22 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>12.000000000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="10">
         <v>15.099999999999998</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>15</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>23.6</v>
       </c>
       <c r="J8" t="s">
@@ -6700,22 +7136,22 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>108</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>12.400000000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="10">
         <v>15.299999999999997</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>16</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>23.900000000000002</v>
       </c>
       <c r="J9" t="s">
@@ -6732,22 +7168,22 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>116</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>12.800000000000002</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="10">
         <v>15.499999999999996</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>17</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>24.200000000000003</v>
       </c>
       <c r="J10" t="s">
@@ -6764,22 +7200,22 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>124</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>13.200000000000003</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="10">
         <v>15.699999999999996</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>18</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>24.500000000000004</v>
       </c>
       <c r="J11" t="s">
@@ -6796,22 +7232,22 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>132</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>13.600000000000003</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="10">
         <v>15.899999999999995</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>19</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>24.800000000000004</v>
       </c>
       <c r="J12" t="s">
@@ -6828,22 +7264,22 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>140</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="11">
         <v>14.000000000000004</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="10">
         <v>16.099999999999994</v>
       </c>
       <c r="G13">
         <v>3</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>20</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>25.100000000000005</v>
       </c>
       <c r="J13" t="s">
@@ -6860,22 +7296,22 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>148</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="11">
         <v>14.400000000000004</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="10">
         <v>16.299999999999994</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>21</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>25.400000000000006</v>
       </c>
       <c r="J14" t="s">
@@ -6892,22 +7328,22 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>156</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="11">
         <v>14.800000000000004</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="10">
         <v>16.499999999999993</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>22</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <v>25.700000000000006</v>
       </c>
       <c r="J15" t="s">
@@ -6924,22 +7360,22 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>164</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="11">
         <v>15.200000000000005</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="10">
         <v>16.699999999999992</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>23</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>26.000000000000007</v>
       </c>
       <c r="J16" t="s">
@@ -6956,22 +7392,22 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>172</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="11">
         <v>15.600000000000005</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="10">
         <v>16.899999999999991</v>
       </c>
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>24</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <v>26.300000000000008</v>
       </c>
       <c r="J17" t="s">
@@ -6988,22 +7424,22 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>180</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="11">
         <v>16.000000000000004</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="10">
         <v>17.099999999999991</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>25</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>26.600000000000009</v>
       </c>
       <c r="J18" t="s">
@@ -7020,22 +7456,22 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>188</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="11">
         <v>16.400000000000002</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="10">
         <v>17.29999999999999</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>26</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>26.900000000000009</v>
       </c>
       <c r="J19" t="s">
@@ -7052,22 +7488,22 @@
       <c r="C20">
         <v>18</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>196</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="11">
         <v>16.8</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="10">
         <v>17.499999999999989</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>27</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>27.20000000000001</v>
       </c>
       <c r="J20" t="s">
@@ -7084,22 +7520,22 @@
       <c r="C21">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>204</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="11">
         <v>17.2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="10">
         <v>17.699999999999989</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>28</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <v>27.500000000000011</v>
       </c>
       <c r="J21" t="s">
@@ -7116,22 +7552,22 @@
       <c r="C22">
         <v>20</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>212</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11">
         <v>17.599999999999998</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="10">
         <v>17.899999999999988</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>29</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>27.800000000000011</v>
       </c>
       <c r="J22" t="s">
@@ -7148,22 +7584,22 @@
       <c r="C23">
         <v>21</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>220</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="11">
         <v>17.999999999999996</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="10">
         <v>18.099999999999987</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>30</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>28.100000000000012</v>
       </c>
       <c r="J23" t="s">
@@ -7180,22 +7616,22 @@
       <c r="C24">
         <v>22</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>228</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="11">
         <v>18.399999999999995</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="10">
         <v>18.299999999999986</v>
       </c>
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>31</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>28.400000000000013</v>
       </c>
       <c r="J24" t="s">
@@ -7212,22 +7648,22 @@
       <c r="C25">
         <v>23</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>236</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="11">
         <v>18.799999999999994</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="10">
         <v>18.499999999999986</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>32</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>28.700000000000014</v>
       </c>
       <c r="J25" t="s">
@@ -7244,27 +7680,39 @@
       <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="6">
         <v>244</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="11">
         <v>19.199999999999992</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="10">
         <v>18.699999999999985</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>33</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>29.000000000000014</v>
       </c>
       <c r="J26" t="s">
         <v>112</v>
       </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -7279,10 +7727,10 @@
       <c r="D30">
         <v>30</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="9">
         <v>20</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="9">
         <v>16</v>
       </c>
       <c r="G30">
@@ -7308,22 +7756,22 @@
       <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>36</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="11">
         <v>20.8</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="11">
         <v>16.3</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="7">
         <v>2</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="7">
         <v>31</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="7">
         <v>36</v>
       </c>
       <c r="J31" t="s">
@@ -7340,22 +7788,22 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>42</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="11">
         <v>21.6</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="11">
         <v>16.600000000000001</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="7">
         <v>2</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <v>32</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="7">
         <v>37</v>
       </c>
       <c r="J32" t="s">
@@ -7372,22 +7820,22 @@
       <c r="C33">
         <v>4</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="7">
         <v>48</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="11">
         <v>22.400000000000002</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="11">
         <v>16.900000000000002</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="7">
         <v>2</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <v>33</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="7">
         <v>38</v>
       </c>
       <c r="J33" t="s">
@@ -7404,22 +7852,22 @@
       <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>54</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="11">
         <v>23.200000000000003</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="11">
         <v>17.200000000000003</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="7">
         <v>2</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <v>34</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <v>39</v>
       </c>
       <c r="J34" t="s">
@@ -7436,22 +7884,22 @@
       <c r="C35">
         <v>6</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="7">
         <v>60</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="11">
         <v>24.000000000000004</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="11">
         <v>17.500000000000004</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
         <v>2</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>35</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <v>40</v>
       </c>
       <c r="J35" t="s">
@@ -7468,22 +7916,22 @@
       <c r="C36">
         <v>7</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>66</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="11">
         <v>24.800000000000004</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="11">
         <v>17.800000000000004</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="7">
         <v>2</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <v>36</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>41</v>
       </c>
       <c r="J36" t="s">
@@ -7500,22 +7948,22 @@
       <c r="C37">
         <v>8</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="7">
         <v>72</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="11">
         <v>25.600000000000005</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="11">
         <v>18.100000000000005</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="7">
         <v>2</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="7">
         <v>37</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>42</v>
       </c>
       <c r="J37" t="s">
@@ -7532,22 +7980,22 @@
       <c r="C38">
         <v>9</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>78</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="11">
         <v>26.400000000000006</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="11">
         <v>18.400000000000006</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="7">
         <v>38</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I38" s="7">
         <v>43</v>
       </c>
       <c r="J38" t="s">
@@ -7564,22 +8012,22 @@
       <c r="C39">
         <v>10</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="7">
         <v>84</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="11">
         <v>27.200000000000006</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="11">
         <v>18.700000000000006</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="7">
         <v>2</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="7">
         <v>39</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="7">
         <v>44</v>
       </c>
       <c r="J39" t="s">
@@ -7596,22 +8044,22 @@
       <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>90</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="11">
         <v>28.000000000000007</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="11">
         <v>19.000000000000007</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <v>2</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="7">
         <v>40</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="7">
         <v>45</v>
       </c>
       <c r="J40" t="s">
@@ -7628,22 +8076,22 @@
       <c r="C41">
         <v>12</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <v>96</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="11">
         <v>28.800000000000008</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="11">
         <v>19.300000000000008</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="7">
         <v>2</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="7">
         <v>41</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <v>46</v>
       </c>
       <c r="J41" t="s">
@@ -7660,22 +8108,22 @@
       <c r="C42">
         <v>13</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>102</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="11">
         <v>29.600000000000009</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="11">
         <v>19.600000000000009</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="7">
         <v>2</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="7">
         <v>42</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I42" s="7">
         <v>47</v>
       </c>
       <c r="J42" t="s">
@@ -7692,22 +8140,22 @@
       <c r="C43">
         <v>14</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="7">
         <v>108</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="11">
         <v>30.400000000000009</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="11">
         <v>19.900000000000009</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="7">
         <v>2</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="7">
         <v>43</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I43" s="7">
         <v>48</v>
       </c>
       <c r="J43" t="s">
@@ -7724,22 +8172,22 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>114</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="11">
         <v>31.20000000000001</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="11">
         <v>20.20000000000001</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="7">
         <v>2</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="7">
         <v>44</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I44" s="7">
         <v>49</v>
       </c>
       <c r="J44" t="s">
@@ -7756,22 +8204,22 @@
       <c r="C45">
         <v>16</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="7">
         <v>120</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="11">
         <v>32.000000000000007</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="11">
         <v>20.500000000000011</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="7">
         <v>2</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="7">
         <v>45</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I45" s="7">
         <v>50</v>
       </c>
       <c r="J45" t="s">
@@ -7788,22 +8236,22 @@
       <c r="C46">
         <v>17</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="7">
         <v>126</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="11">
         <v>32.800000000000004</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="11">
         <v>20.800000000000011</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="7">
         <v>2</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="7">
         <v>46</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I46" s="7">
         <v>51</v>
       </c>
       <c r="J46" t="s">
@@ -7820,22 +8268,22 @@
       <c r="C47">
         <v>18</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="7">
         <v>132</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="11">
         <v>33.6</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="11">
         <v>21.100000000000012</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="7">
         <v>2</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="7">
         <v>47</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="7">
         <v>52</v>
       </c>
       <c r="J47" t="s">
@@ -7852,22 +8300,22 @@
       <c r="C48">
         <v>19</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="7">
         <v>138</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="11">
         <v>34.4</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="11">
         <v>21.400000000000013</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="7">
         <v>2</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="7">
         <v>48</v>
       </c>
-      <c r="I48" s="9">
+      <c r="I48" s="7">
         <v>53</v>
       </c>
       <c r="J48" t="s">
@@ -7884,22 +8332,22 @@
       <c r="C49">
         <v>20</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="7">
         <v>144</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="11">
         <v>35.199999999999996</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="11">
         <v>21.700000000000014</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="7">
         <v>2</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="7">
         <v>49</v>
       </c>
-      <c r="I49" s="9">
+      <c r="I49" s="7">
         <v>54</v>
       </c>
       <c r="J49" t="s">
@@ -7916,22 +8364,22 @@
       <c r="C50">
         <v>21</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="7">
         <v>150</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="11">
         <v>35.999999999999993</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="11">
         <v>22.000000000000014</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="7">
         <v>2</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="7">
         <v>50</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <v>55</v>
       </c>
       <c r="J50" t="s">
@@ -7948,22 +8396,22 @@
       <c r="C51">
         <v>22</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="7">
         <v>156</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="11">
         <v>36.79999999999999</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="11">
         <v>22.300000000000015</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="7">
         <v>2</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="7">
         <v>51</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="7">
         <v>56</v>
       </c>
       <c r="J51" t="s">
@@ -7980,22 +8428,22 @@
       <c r="C52">
         <v>23</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="7">
         <v>162</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="11">
         <v>37.599999999999987</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="11">
         <v>22.600000000000016</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="7">
         <v>2</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="7">
         <v>52</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I52" s="7">
         <v>57</v>
       </c>
       <c r="J52" t="s">
@@ -8012,27 +8460,45 @@
       <c r="C53">
         <v>24</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="7">
         <v>168</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="11">
         <v>38.399999999999984</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="11">
         <v>22.900000000000016</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="7">
         <v>2</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="7">
         <v>53</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="7">
         <v>58</v>
       </c>
       <c r="J53" t="s">
         <v>155</v>
       </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="9"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -8047,7 +8513,7 @@
       <c r="D60">
         <v>80</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="9">
         <v>8</v>
       </c>
       <c r="F60">
@@ -8076,22 +8542,22 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>90</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="11">
         <v>8.4</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="8">
         <v>52</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="8">
         <v>5</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="8">
         <v>10.4</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="8">
         <v>18.399999999999999</v>
       </c>
       <c r="J61" t="s">
@@ -8108,22 +8574,22 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>100</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="8">
         <v>54</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="8">
         <v>5</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <v>10.8</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="8">
         <v>18.799999999999997</v>
       </c>
       <c r="J62" t="s">
@@ -8140,22 +8606,22 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>110</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="11">
         <v>9.2000000000000011</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="8">
         <v>56</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="8">
         <v>5</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="8">
         <v>11.200000000000001</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="8">
         <v>19.199999999999996</v>
       </c>
       <c r="J63" t="s">
@@ -8172,22 +8638,22 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>120</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="11">
         <v>9.6000000000000014</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="8">
         <v>58</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="8">
         <v>5</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="8">
         <v>11.600000000000001</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="8">
         <v>19.599999999999994</v>
       </c>
       <c r="J64" t="s">
@@ -8204,22 +8670,22 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="8">
         <v>130</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="11">
         <v>10.000000000000002</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="8">
         <v>60</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="8">
         <v>5</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="8">
         <v>12.000000000000002</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <v>19.999999999999993</v>
       </c>
       <c r="J65" t="s">
@@ -8236,22 +8702,22 @@
       <c r="C66">
         <v>7</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="8">
         <v>140</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="11">
         <v>10.400000000000002</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="8">
         <v>62</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="8">
         <v>5</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="8">
         <v>12.400000000000002</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="8">
         <v>20.399999999999991</v>
       </c>
       <c r="J66" t="s">
@@ -8268,22 +8734,22 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="8">
         <v>150</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="11">
         <v>10.800000000000002</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="8">
         <v>64</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="8">
         <v>5</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="8">
         <v>12.800000000000002</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="8">
         <v>20.79999999999999</v>
       </c>
       <c r="J67" t="s">
@@ -8300,22 +8766,22 @@
       <c r="C68">
         <v>9</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="8">
         <v>160</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="11">
         <v>11.200000000000003</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="8">
         <v>66</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="8">
         <v>5</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="8">
         <v>13.200000000000003</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="8">
         <v>21.199999999999989</v>
       </c>
       <c r="J68" t="s">
@@ -8332,22 +8798,22 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="8">
         <v>170</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="11">
         <v>11.600000000000003</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="8">
         <v>68</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="8">
         <v>5</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="8">
         <v>13.600000000000003</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="8">
         <v>21.599999999999987</v>
       </c>
       <c r="J69" t="s">
@@ -8364,22 +8830,22 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="8">
         <v>180</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="11">
         <v>12.000000000000004</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="8">
         <v>70</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="8">
         <v>5</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="8">
         <v>14.000000000000004</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="8">
         <v>21.999999999999986</v>
       </c>
       <c r="J70" t="s">
@@ -8396,22 +8862,22 @@
       <c r="C71">
         <v>12</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="8">
         <v>190</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="11">
         <v>12.400000000000004</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="8">
         <v>72</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="8">
         <v>5</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="8">
         <v>14.400000000000004</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="8">
         <v>22.399999999999984</v>
       </c>
       <c r="J71" t="s">
@@ -8428,22 +8894,22 @@
       <c r="C72">
         <v>13</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="8">
         <v>200</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="11">
         <v>12.800000000000004</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="8">
         <v>74</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="8">
         <v>5</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="8">
         <v>14.800000000000004</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="8">
         <v>22.799999999999983</v>
       </c>
       <c r="J72" t="s">
@@ -8460,22 +8926,22 @@
       <c r="C73">
         <v>14</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="8">
         <v>210</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="11">
         <v>13.200000000000005</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="8">
         <v>76</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="8">
         <v>5</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="8">
         <v>15.200000000000005</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="8">
         <v>23.199999999999982</v>
       </c>
       <c r="J73" t="s">
@@ -8492,22 +8958,22 @@
       <c r="C74">
         <v>15</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="8">
         <v>220</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="11">
         <v>13.600000000000005</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="8">
         <v>78</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="8">
         <v>5</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="8">
         <v>15.600000000000005</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="8">
         <v>23.59999999999998</v>
       </c>
       <c r="J74" t="s">
@@ -8524,22 +8990,22 @@
       <c r="C75">
         <v>16</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="8">
         <v>230</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="11">
         <v>14.000000000000005</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="8">
         <v>80</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="8">
         <v>5</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="8">
         <v>16.000000000000004</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="8">
         <v>23.999999999999979</v>
       </c>
       <c r="J75" t="s">
@@ -8556,22 +9022,22 @@
       <c r="C76">
         <v>17</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="8">
         <v>240</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="11">
         <v>14.400000000000006</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="8">
         <v>82</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="8">
         <v>5</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="8">
         <v>16.400000000000002</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="8">
         <v>24.399999999999977</v>
       </c>
       <c r="J76" t="s">
@@ -8588,22 +9054,22 @@
       <c r="C77">
         <v>18</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="8">
         <v>250</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="11">
         <v>14.800000000000006</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="8">
         <v>84</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="8">
         <v>5</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="8">
         <v>16.8</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <v>24.799999999999976</v>
       </c>
       <c r="J77" t="s">
@@ -8620,22 +9086,22 @@
       <c r="C78">
         <v>19</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="8">
         <v>260</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="11">
         <v>15.200000000000006</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="8">
         <v>86</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="8">
         <v>5</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="8">
         <v>17.2</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="8">
         <v>25.199999999999974</v>
       </c>
       <c r="J78" t="s">
@@ -8652,22 +9118,22 @@
       <c r="C79">
         <v>20</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="8">
         <v>270</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="11">
         <v>15.600000000000007</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="8">
         <v>88</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="8">
         <v>5</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="8">
         <v>17.599999999999998</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="8">
         <v>25.599999999999973</v>
       </c>
       <c r="J79" t="s">
@@ -8684,22 +9150,22 @@
       <c r="C80">
         <v>21</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="8">
         <v>280</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="11">
         <v>16.000000000000007</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="8">
         <v>90</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="8">
         <v>5</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="8">
         <v>17.999999999999996</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="8">
         <v>25.999999999999972</v>
       </c>
       <c r="J80" t="s">
@@ -8716,22 +9182,22 @@
       <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="8">
         <v>290</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="11">
         <v>16.400000000000006</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="8">
         <v>92</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="8">
         <v>5</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="8">
         <v>18.399999999999995</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="8">
         <v>26.39999999999997</v>
       </c>
       <c r="J81" t="s">
@@ -8748,22 +9214,22 @@
       <c r="C82">
         <v>23</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="8">
         <v>300</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="11">
         <v>16.800000000000004</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="8">
         <v>94</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="8">
         <v>5</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="8">
         <v>18.799999999999994</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="8">
         <v>26.799999999999969</v>
       </c>
       <c r="J82" t="s">
@@ -8780,22 +9246,22 @@
       <c r="C83">
         <v>24</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="8">
         <v>310</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="11">
         <v>17.200000000000003</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="8">
         <v>96</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="8">
         <v>5</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="8">
         <v>19.199999999999992</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="8">
         <v>27.199999999999967</v>
       </c>
       <c r="J83" t="s">

--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="615" windowWidth="23415" windowHeight="8970" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Level" sheetId="1" r:id="rId1"/>
@@ -487,15 +487,15 @@
   </si>
   <si>
     <t>tufei-1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nvbaobiao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_2</t>
@@ -520,23 +520,23 @@
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WaveInterval</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-j</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1-1-2bo-t</t>
@@ -747,7 +747,7 @@
   </si>
   <si>
     <t>EnemyCount</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_1_9</t>
@@ -1063,11 +1063,11 @@
   </si>
   <si>
     <t>EnemyAttr_3_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_3_2</t>
@@ -1140,7 +1140,7 @@
   </si>
   <si>
     <t>1-1-1bo-t</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"1-1-1bo-t","1-1-1bo-n","1-1-1bo-j"</t>
@@ -1153,7 +1153,7 @@
   </si>
   <si>
     <t>"Task1-1-1bo","Task1-1-2bo","Task1-1-3bo"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"Task1-2-1bo","Task1-2-2bo","Task1-2-3bo"</t>
@@ -1565,7 +1565,7 @@
   </si>
   <si>
     <t>"1-8-3bo-t","1-8-3bo-n","1-8-3bo-j"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Task1-8-5bo</t>
@@ -1578,7 +1578,7 @@
   </si>
   <si>
     <t>Task1-8-4bo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,7 +1592,7 @@
       </rPr>
       <t>,"Task1-8-4bo","Task1-8-5bo"</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1606,7 +1606,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1616,10 +1616,18 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1676,42 +1684,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="4"/>
@@ -1721,6 +1738,7 @@
     <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="常规 5 2" xfId="8"/>
     <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="常规 7" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2090,7 +2108,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2100,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2548,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2999,7 +3017,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3784,7 +3802,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3793,8 +3811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3858,7 +3876,7 @@
         <v>154</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3878,7 +3896,7 @@
         <v>155</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -6848,7 +6866,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6857,8 +6875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7727,14 +7745,14 @@
       <c r="D30">
         <v>30</v>
       </c>
-      <c r="E30" s="9">
-        <v>20</v>
+      <c r="E30" s="12">
+        <v>10</v>
       </c>
       <c r="F30" s="9">
         <v>16</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <v>30</v>
@@ -7759,14 +7777,14 @@
       <c r="D31" s="7">
         <v>36</v>
       </c>
-      <c r="E31" s="11">
-        <v>20.8</v>
+      <c r="E31" s="13">
+        <v>10.3</v>
       </c>
       <c r="F31" s="11">
         <v>16.3</v>
       </c>
-      <c r="G31" s="7">
-        <v>2</v>
+      <c r="G31">
+        <v>4</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -7791,14 +7809,14 @@
       <c r="D32" s="7">
         <v>42</v>
       </c>
-      <c r="E32" s="11">
-        <v>21.6</v>
+      <c r="E32" s="13">
+        <v>10.600000000000001</v>
       </c>
       <c r="F32" s="11">
         <v>16.600000000000001</v>
       </c>
-      <c r="G32" s="7">
-        <v>2</v>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32" s="7">
         <v>32</v>
@@ -7823,14 +7841,14 @@
       <c r="D33" s="7">
         <v>48</v>
       </c>
-      <c r="E33" s="11">
-        <v>22.400000000000002</v>
+      <c r="E33" s="13">
+        <v>10.900000000000002</v>
       </c>
       <c r="F33" s="11">
         <v>16.900000000000002</v>
       </c>
-      <c r="G33" s="7">
-        <v>2</v>
+      <c r="G33">
+        <v>4</v>
       </c>
       <c r="H33" s="7">
         <v>33</v>
@@ -7855,14 +7873,14 @@
       <c r="D34" s="7">
         <v>54</v>
       </c>
-      <c r="E34" s="11">
-        <v>23.200000000000003</v>
+      <c r="E34" s="13">
+        <v>11.200000000000003</v>
       </c>
       <c r="F34" s="11">
         <v>17.200000000000003</v>
       </c>
-      <c r="G34" s="7">
-        <v>2</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34" s="7">
         <v>34</v>
@@ -7887,14 +7905,14 @@
       <c r="D35" s="7">
         <v>60</v>
       </c>
-      <c r="E35" s="11">
-        <v>24.000000000000004</v>
+      <c r="E35" s="13">
+        <v>11.500000000000004</v>
       </c>
       <c r="F35" s="11">
         <v>17.500000000000004</v>
       </c>
-      <c r="G35" s="7">
-        <v>2</v>
+      <c r="G35">
+        <v>4</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -7919,14 +7937,14 @@
       <c r="D36" s="7">
         <v>66</v>
       </c>
-      <c r="E36" s="11">
-        <v>24.800000000000004</v>
+      <c r="E36" s="13">
+        <v>11.800000000000004</v>
       </c>
       <c r="F36" s="11">
         <v>17.800000000000004</v>
       </c>
-      <c r="G36" s="7">
-        <v>2</v>
+      <c r="G36">
+        <v>4</v>
       </c>
       <c r="H36" s="7">
         <v>36</v>
@@ -7951,14 +7969,14 @@
       <c r="D37" s="7">
         <v>72</v>
       </c>
-      <c r="E37" s="11">
-        <v>25.600000000000005</v>
+      <c r="E37" s="13">
+        <v>12.100000000000005</v>
       </c>
       <c r="F37" s="11">
         <v>18.100000000000005</v>
       </c>
-      <c r="G37" s="7">
-        <v>2</v>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37" s="7">
         <v>37</v>
@@ -7983,14 +8001,14 @@
       <c r="D38" s="7">
         <v>78</v>
       </c>
-      <c r="E38" s="11">
-        <v>26.400000000000006</v>
+      <c r="E38" s="13">
+        <v>12.400000000000006</v>
       </c>
       <c r="F38" s="11">
         <v>18.400000000000006</v>
       </c>
-      <c r="G38" s="7">
-        <v>2</v>
+      <c r="G38">
+        <v>4</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8015,14 +8033,14 @@
       <c r="D39" s="7">
         <v>84</v>
       </c>
-      <c r="E39" s="11">
-        <v>27.200000000000006</v>
+      <c r="E39" s="13">
+        <v>12.700000000000006</v>
       </c>
       <c r="F39" s="11">
         <v>18.700000000000006</v>
       </c>
-      <c r="G39" s="7">
-        <v>2</v>
+      <c r="G39">
+        <v>4</v>
       </c>
       <c r="H39" s="7">
         <v>39</v>
@@ -8047,14 +8065,14 @@
       <c r="D40" s="7">
         <v>90</v>
       </c>
-      <c r="E40" s="11">
-        <v>28.000000000000007</v>
+      <c r="E40" s="13">
+        <v>13.000000000000007</v>
       </c>
       <c r="F40" s="11">
         <v>19.000000000000007</v>
       </c>
-      <c r="G40" s="7">
-        <v>2</v>
+      <c r="G40">
+        <v>4</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -8079,14 +8097,14 @@
       <c r="D41" s="7">
         <v>96</v>
       </c>
-      <c r="E41" s="11">
-        <v>28.800000000000008</v>
+      <c r="E41" s="13">
+        <v>13.300000000000008</v>
       </c>
       <c r="F41" s="11">
         <v>19.300000000000008</v>
       </c>
-      <c r="G41" s="7">
-        <v>2</v>
+      <c r="G41">
+        <v>4</v>
       </c>
       <c r="H41" s="7">
         <v>41</v>
@@ -8111,14 +8129,14 @@
       <c r="D42" s="7">
         <v>102</v>
       </c>
-      <c r="E42" s="11">
-        <v>29.600000000000009</v>
+      <c r="E42" s="13">
+        <v>13.600000000000009</v>
       </c>
       <c r="F42" s="11">
         <v>19.600000000000009</v>
       </c>
-      <c r="G42" s="7">
-        <v>2</v>
+      <c r="G42">
+        <v>4</v>
       </c>
       <c r="H42" s="7">
         <v>42</v>
@@ -8143,14 +8161,14 @@
       <c r="D43" s="7">
         <v>108</v>
       </c>
-      <c r="E43" s="11">
-        <v>30.400000000000009</v>
+      <c r="E43" s="13">
+        <v>13.900000000000009</v>
       </c>
       <c r="F43" s="11">
         <v>19.900000000000009</v>
       </c>
-      <c r="G43" s="7">
-        <v>2</v>
+      <c r="G43">
+        <v>4</v>
       </c>
       <c r="H43" s="7">
         <v>43</v>
@@ -8175,14 +8193,14 @@
       <c r="D44" s="7">
         <v>114</v>
       </c>
-      <c r="E44" s="11">
-        <v>31.20000000000001</v>
+      <c r="E44" s="13">
+        <v>14.20000000000001</v>
       </c>
       <c r="F44" s="11">
         <v>20.20000000000001</v>
       </c>
-      <c r="G44" s="7">
-        <v>2</v>
+      <c r="G44">
+        <v>4</v>
       </c>
       <c r="H44" s="7">
         <v>44</v>
@@ -8207,14 +8225,14 @@
       <c r="D45" s="7">
         <v>120</v>
       </c>
-      <c r="E45" s="11">
-        <v>32.000000000000007</v>
+      <c r="E45" s="13">
+        <v>14.500000000000011</v>
       </c>
       <c r="F45" s="11">
         <v>20.500000000000011</v>
       </c>
-      <c r="G45" s="7">
-        <v>2</v>
+      <c r="G45">
+        <v>4</v>
       </c>
       <c r="H45" s="7">
         <v>45</v>
@@ -8239,14 +8257,14 @@
       <c r="D46" s="7">
         <v>126</v>
       </c>
-      <c r="E46" s="11">
-        <v>32.800000000000004</v>
+      <c r="E46" s="13">
+        <v>14.800000000000011</v>
       </c>
       <c r="F46" s="11">
         <v>20.800000000000011</v>
       </c>
-      <c r="G46" s="7">
-        <v>2</v>
+      <c r="G46">
+        <v>4</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -8271,14 +8289,14 @@
       <c r="D47" s="7">
         <v>132</v>
       </c>
-      <c r="E47" s="11">
-        <v>33.6</v>
+      <c r="E47" s="13">
+        <v>15.100000000000012</v>
       </c>
       <c r="F47" s="11">
         <v>21.100000000000012</v>
       </c>
-      <c r="G47" s="7">
-        <v>2</v>
+      <c r="G47">
+        <v>4</v>
       </c>
       <c r="H47" s="7">
         <v>47</v>
@@ -8303,14 +8321,14 @@
       <c r="D48" s="7">
         <v>138</v>
       </c>
-      <c r="E48" s="11">
-        <v>34.4</v>
+      <c r="E48" s="13">
+        <v>15.400000000000013</v>
       </c>
       <c r="F48" s="11">
         <v>21.400000000000013</v>
       </c>
-      <c r="G48" s="7">
-        <v>2</v>
+      <c r="G48">
+        <v>4</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -8335,14 +8353,14 @@
       <c r="D49" s="7">
         <v>144</v>
       </c>
-      <c r="E49" s="11">
-        <v>35.199999999999996</v>
+      <c r="E49" s="13">
+        <v>15.700000000000014</v>
       </c>
       <c r="F49" s="11">
         <v>21.700000000000014</v>
       </c>
-      <c r="G49" s="7">
-        <v>2</v>
+      <c r="G49">
+        <v>4</v>
       </c>
       <c r="H49" s="7">
         <v>49</v>
@@ -8367,14 +8385,14 @@
       <c r="D50" s="7">
         <v>150</v>
       </c>
-      <c r="E50" s="11">
-        <v>35.999999999999993</v>
+      <c r="E50" s="13">
+        <v>16.000000000000014</v>
       </c>
       <c r="F50" s="11">
         <v>22.000000000000014</v>
       </c>
-      <c r="G50" s="7">
-        <v>2</v>
+      <c r="G50">
+        <v>4</v>
       </c>
       <c r="H50" s="7">
         <v>50</v>
@@ -8399,14 +8417,14 @@
       <c r="D51" s="7">
         <v>156</v>
       </c>
-      <c r="E51" s="11">
-        <v>36.79999999999999</v>
+      <c r="E51" s="13">
+        <v>16.300000000000015</v>
       </c>
       <c r="F51" s="11">
         <v>22.300000000000015</v>
       </c>
-      <c r="G51" s="7">
-        <v>2</v>
+      <c r="G51">
+        <v>4</v>
       </c>
       <c r="H51" s="7">
         <v>51</v>
@@ -8431,14 +8449,14 @@
       <c r="D52" s="7">
         <v>162</v>
       </c>
-      <c r="E52" s="11">
-        <v>37.599999999999987</v>
+      <c r="E52" s="13">
+        <v>16.600000000000016</v>
       </c>
       <c r="F52" s="11">
         <v>22.600000000000016</v>
       </c>
-      <c r="G52" s="7">
-        <v>2</v>
+      <c r="G52">
+        <v>4</v>
       </c>
       <c r="H52" s="7">
         <v>52</v>
@@ -8463,14 +8481,14 @@
       <c r="D53" s="7">
         <v>168</v>
       </c>
-      <c r="E53" s="11">
-        <v>38.399999999999984</v>
+      <c r="E53" s="13">
+        <v>16.900000000000016</v>
       </c>
       <c r="F53" s="11">
         <v>22.900000000000016</v>
       </c>
-      <c r="G53" s="7">
-        <v>2</v>
+      <c r="G53">
+        <v>4</v>
       </c>
       <c r="H53" s="7">
         <v>53</v>
@@ -9269,7 +9287,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9351,7 +9369,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9585,7 +9603,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9686,7 +9704,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gamedata.xlsx
+++ b/gamedata.xlsx
@@ -487,15 +487,15 @@
   </si>
   <si>
     <t>tufei-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>nvbaobiao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_2_2</t>
@@ -520,23 +520,23 @@
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>WaveInterval</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-n</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1-1-1bo-j</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>1-1-2bo-t</t>
@@ -747,7 +747,7 @@
   </si>
   <si>
     <t>EnemyCount</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_1_9</t>
@@ -1063,11 +1063,11 @@
   </si>
   <si>
     <t>EnemyAttr_3_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jiqiangshou</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EnemyAttr_3_2</t>
@@ -1140,7 +1140,7 @@
   </si>
   <si>
     <t>1-1-1bo-t</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"1-1-1bo-t","1-1-1bo-n","1-1-1bo-j"</t>
@@ -1153,7 +1153,7 @@
   </si>
   <si>
     <t>"Task1-1-1bo","Task1-1-2bo","Task1-1-3bo"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>"Task1-2-1bo","Task1-2-2bo","Task1-2-3bo"</t>
@@ -1565,7 +1565,7 @@
   </si>
   <si>
     <t>"1-8-3bo-t","1-8-3bo-n","1-8-3bo-j"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Task1-8-5bo</t>
@@ -1578,7 +1578,7 @@
   </si>
   <si>
     <t>Task1-8-4bo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1592,7 +1592,7 @@
       </rPr>
       <t>,"Task1-8-4bo","Task1-8-5bo"</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1606,7 +1606,7 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1616,10 +1616,18 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1665,6 +1673,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1684,61 +1693,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="16">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="常规 3 2" xfId="7"/>
+    <cellStyle name="常规 3 2 2" xfId="14"/>
+    <cellStyle name="常规 3 3" xfId="12"/>
     <cellStyle name="常规 4" xfId="3"/>
     <cellStyle name="常规 5" xfId="6"/>
     <cellStyle name="常规 5 2" xfId="8"/>
     <cellStyle name="常规 6" xfId="5"/>
+    <cellStyle name="常规 6 2" xfId="13"/>
     <cellStyle name="常规 7" xfId="9"/>
+    <cellStyle name="常规 7 2" xfId="15"/>
+    <cellStyle name="常规 8" xfId="11"/>
+    <cellStyle name="常规 9" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2108,7 +2141,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2548,7 +2581,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3017,7 +3050,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3802,7 +3835,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3812,7 +3845,7 @@
   <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3969,7 @@
         <v>154</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3956,7 +3989,7 @@
         <v>155</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3976,7 +4009,7 @@
         <v>164</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3996,7 +4029,7 @@
         <v>154</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4016,7 +4049,7 @@
         <v>155</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -4036,7 +4069,7 @@
         <v>164</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4056,7 +4089,7 @@
         <v>154</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -4076,7 +4109,7 @@
         <v>155</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4096,7 +4129,7 @@
         <v>164</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4116,7 +4149,7 @@
         <v>154</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -4136,7 +4169,7 @@
         <v>155</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -4156,7 +4189,7 @@
         <v>164</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -6866,7 +6899,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6875,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8523,7 +8556,7 @@
         <v>343</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -8532,19 +8565,19 @@
         <v>80</v>
       </c>
       <c r="E60" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>50</v>
       </c>
       <c r="G60">
-        <v>5</v>
-      </c>
-      <c r="H60">
         <v>10</v>
       </c>
-      <c r="I60">
-        <v>18</v>
+      <c r="H60" s="9">
+        <v>10</v>
+      </c>
+      <c r="I60" s="14">
+        <v>40</v>
       </c>
       <c r="J60" t="s">
         <v>164</v>
@@ -8555,7 +8588,7 @@
         <v>345</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -8563,20 +8596,20 @@
       <c r="D61" s="8">
         <v>90</v>
       </c>
-      <c r="E61" s="11">
-        <v>8.4</v>
+      <c r="E61" s="9">
+        <v>1</v>
       </c>
       <c r="F61" s="8">
         <v>52</v>
       </c>
-      <c r="G61" s="8">
-        <v>5</v>
-      </c>
-      <c r="H61" s="8">
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61" s="11">
         <v>10.4</v>
       </c>
-      <c r="I61" s="8">
-        <v>18.399999999999999</v>
+      <c r="I61" s="15">
+        <v>41</v>
       </c>
       <c r="J61" t="s">
         <v>164</v>
@@ -8587,7 +8620,7 @@
         <v>346</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -8595,20 +8628,20 @@
       <c r="D62" s="8">
         <v>100</v>
       </c>
-      <c r="E62" s="11">
-        <v>8.8000000000000007</v>
+      <c r="E62" s="9">
+        <v>1</v>
       </c>
       <c r="F62" s="8">
         <v>54</v>
       </c>
-      <c r="G62" s="8">
-        <v>5</v>
-      </c>
-      <c r="H62" s="8">
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62" s="11">
         <v>10.8</v>
       </c>
-      <c r="I62" s="8">
-        <v>18.799999999999997</v>
+      <c r="I62" s="15">
+        <v>42</v>
       </c>
       <c r="J62" t="s">
         <v>164</v>
@@ -8619,7 +8652,7 @@
         <v>347</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -8627,20 +8660,20 @@
       <c r="D63" s="8">
         <v>110</v>
       </c>
-      <c r="E63" s="11">
-        <v>9.2000000000000011</v>
+      <c r="E63" s="9">
+        <v>1</v>
       </c>
       <c r="F63" s="8">
         <v>56</v>
       </c>
-      <c r="G63" s="8">
-        <v>5</v>
-      </c>
-      <c r="H63" s="8">
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63" s="11">
         <v>11.200000000000001</v>
       </c>
-      <c r="I63" s="8">
-        <v>19.199999999999996</v>
+      <c r="I63" s="15">
+        <v>43</v>
       </c>
       <c r="J63" t="s">
         <v>164</v>
@@ -8651,7 +8684,7 @@
         <v>348</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -8659,20 +8692,20 @@
       <c r="D64" s="8">
         <v>120</v>
       </c>
-      <c r="E64" s="11">
-        <v>9.6000000000000014</v>
+      <c r="E64" s="9">
+        <v>2</v>
       </c>
       <c r="F64" s="8">
         <v>58</v>
       </c>
-      <c r="G64" s="8">
-        <v>5</v>
-      </c>
-      <c r="H64" s="8">
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64" s="11">
         <v>11.600000000000001</v>
       </c>
-      <c r="I64" s="8">
-        <v>19.599999999999994</v>
+      <c r="I64" s="15">
+        <v>44</v>
       </c>
       <c r="J64" t="s">
         <v>164</v>
@@ -8683,7 +8716,7 @@
         <v>349</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>6</v>
@@ -8691,20 +8724,20 @@
       <c r="D65" s="8">
         <v>130</v>
       </c>
-      <c r="E65" s="11">
-        <v>10.000000000000002</v>
+      <c r="E65" s="9">
+        <v>2</v>
       </c>
       <c r="F65" s="8">
         <v>60</v>
       </c>
-      <c r="G65" s="8">
-        <v>5</v>
-      </c>
-      <c r="H65" s="8">
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65" s="11">
         <v>12.000000000000002</v>
       </c>
-      <c r="I65" s="8">
-        <v>19.999999999999993</v>
+      <c r="I65" s="15">
+        <v>45</v>
       </c>
       <c r="J65" t="s">
         <v>164</v>
@@ -8715,7 +8748,7 @@
         <v>350</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>7</v>
@@ -8723,20 +8756,20 @@
       <c r="D66" s="8">
         <v>140</v>
       </c>
-      <c r="E66" s="11">
-        <v>10.400000000000002</v>
+      <c r="E66" s="9">
+        <v>3</v>
       </c>
       <c r="F66" s="8">
         <v>62</v>
       </c>
-      <c r="G66" s="8">
-        <v>5</v>
-      </c>
-      <c r="H66" s="8">
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66" s="11">
         <v>12.400000000000002</v>
       </c>
-      <c r="I66" s="8">
-        <v>20.399999999999991</v>
+      <c r="I66" s="15">
+        <v>46</v>
       </c>
       <c r="J66" t="s">
         <v>164</v>
@@ -8747,7 +8780,7 @@
         <v>351</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67">
         <v>8</v>
@@ -8756,19 +8789,19 @@
         <v>150</v>
       </c>
       <c r="E67" s="11">
-        <v>10.800000000000002</v>
+        <v>3</v>
       </c>
       <c r="F67" s="8">
         <v>64</v>
       </c>
-      <c r="G67" s="8">
-        <v>5</v>
-      </c>
-      <c r="H67" s="8">
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67" s="11">
         <v>12.800000000000002</v>
       </c>
-      <c r="I67" s="8">
-        <v>20.79999999999999</v>
+      <c r="I67" s="15">
+        <v>47</v>
       </c>
       <c r="J67" t="s">
         <v>164</v>
@@ -8779,7 +8812,7 @@
         <v>352</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -8788,19 +8821,19 @@
         <v>160</v>
       </c>
       <c r="E68" s="11">
-        <v>11.200000000000003</v>
+        <v>3</v>
       </c>
       <c r="F68" s="8">
         <v>66</v>
       </c>
-      <c r="G68" s="8">
-        <v>5</v>
-      </c>
-      <c r="H68" s="8">
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68" s="11">
         <v>13.200000000000003</v>
       </c>
-      <c r="I68" s="8">
-        <v>21.199999999999989</v>
+      <c r="I68" s="15">
+        <v>48</v>
       </c>
       <c r="J68" t="s">
         <v>164</v>
@@ -8811,7 +8844,7 @@
         <v>353</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -8820,19 +8853,19 @@
         <v>170</v>
       </c>
       <c r="E69" s="11">
-        <v>11.600000000000003</v>
+        <v>3</v>
       </c>
       <c r="F69" s="8">
         <v>68</v>
       </c>
-      <c r="G69" s="8">
-        <v>5</v>
-      </c>
-      <c r="H69" s="8">
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69" s="11">
         <v>13.600000000000003</v>
       </c>
-      <c r="I69" s="8">
-        <v>21.599999999999987</v>
+      <c r="I69" s="15">
+        <v>49</v>
       </c>
       <c r="J69" t="s">
         <v>164</v>
@@ -8843,7 +8876,7 @@
         <v>354</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -8852,19 +8885,19 @@
         <v>180</v>
       </c>
       <c r="E70" s="11">
-        <v>12.000000000000004</v>
+        <v>4</v>
       </c>
       <c r="F70" s="8">
         <v>70</v>
       </c>
-      <c r="G70" s="8">
-        <v>5</v>
-      </c>
-      <c r="H70" s="8">
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70" s="11">
         <v>14.000000000000004</v>
       </c>
-      <c r="I70" s="8">
-        <v>21.999999999999986</v>
+      <c r="I70" s="15">
+        <v>50</v>
       </c>
       <c r="J70" t="s">
         <v>164</v>
@@ -8875,7 +8908,7 @@
         <v>355</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71">
         <v>12</v>
@@ -8884,19 +8917,19 @@
         <v>190</v>
       </c>
       <c r="E71" s="11">
-        <v>12.400000000000004</v>
+        <v>4</v>
       </c>
       <c r="F71" s="8">
         <v>72</v>
       </c>
-      <c r="G71" s="8">
-        <v>5</v>
-      </c>
-      <c r="H71" s="8">
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71" s="11">
         <v>14.400000000000004</v>
       </c>
-      <c r="I71" s="8">
-        <v>22.399999999999984</v>
+      <c r="I71" s="15">
+        <v>51</v>
       </c>
       <c r="J71" t="s">
         <v>164</v>
@@ -8907,7 +8940,7 @@
         <v>356</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>13</v>
@@ -8916,19 +8949,19 @@
         <v>200</v>
       </c>
       <c r="E72" s="11">
-        <v>12.800000000000004</v>
+        <v>4</v>
       </c>
       <c r="F72" s="8">
         <v>74</v>
       </c>
-      <c r="G72" s="8">
-        <v>5</v>
-      </c>
-      <c r="H72" s="8">
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72" s="11">
         <v>14.800000000000004</v>
       </c>
-      <c r="I72" s="8">
-        <v>22.799999999999983</v>
+      <c r="I72" s="15">
+        <v>52</v>
       </c>
       <c r="J72" t="s">
         <v>164</v>
@@ -8939,7 +8972,7 @@
         <v>357</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73">
         <v>14</v>
@@ -8948,19 +8981,19 @@
         <v>210</v>
       </c>
       <c r="E73" s="11">
-        <v>13.200000000000005</v>
+        <v>4</v>
       </c>
       <c r="F73" s="8">
         <v>76</v>
       </c>
-      <c r="G73" s="8">
-        <v>5</v>
-      </c>
-      <c r="H73" s="8">
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73" s="11">
         <v>15.200000000000005</v>
       </c>
-      <c r="I73" s="8">
-        <v>23.199999999999982</v>
+      <c r="I73" s="15">
+        <v>53</v>
       </c>
       <c r="J73" t="s">
         <v>164</v>
@@ -8971,7 +9004,7 @@
         <v>358</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74">
         <v>15</v>
@@ -8980,19 +9013,19 @@
         <v>220</v>
       </c>
       <c r="E74" s="11">
-        <v>13.600000000000005</v>
+        <v>5</v>
       </c>
       <c r="F74" s="8">
         <v>78</v>
       </c>
-      <c r="G74" s="8">
-        <v>5</v>
-      </c>
-      <c r="H74" s="8">
+      <c r="G74">
+        <v>10</v>
+      </c>
+      <c r="H74" s="11">
         <v>15.600000000000005</v>
       </c>
-      <c r="I74" s="8">
-        <v>23.59999999999998</v>
+      <c r="I74" s="15">
+        <v>54</v>
       </c>
       <c r="J74" t="s">
         <v>164</v>
@@ -9003,7 +9036,7 @@
         <v>359</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
         <v>16</v>
@@ -9012,19 +9045,19 @@
         <v>230</v>
       </c>
       <c r="E75" s="11">
-        <v>14.000000000000005</v>
+        <v>5</v>
       </c>
       <c r="F75" s="8">
         <v>80</v>
       </c>
-      <c r="G75" s="8">
-        <v>5</v>
-      </c>
-      <c r="H75" s="8">
+      <c r="G75">
+        <v>10</v>
+      </c>
+      <c r="H75" s="11">
         <v>16.000000000000004</v>
       </c>
-      <c r="I75" s="8">
-        <v>23.999999999999979</v>
+      <c r="I75" s="15">
+        <v>55</v>
       </c>
       <c r="J75" t="s">
         <v>164</v>
@@ -9035,7 +9068,7 @@
         <v>360</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76">
         <v>17</v>
@@ -9044,19 +9077,19 @@
         <v>240</v>
       </c>
       <c r="E76" s="11">
-        <v>14.400000000000006</v>
+        <v>6</v>
       </c>
       <c r="F76" s="8">
         <v>82</v>
       </c>
-      <c r="G76" s="8">
-        <v>5</v>
-      </c>
-      <c r="H76" s="8">
+      <c r="G76">
+        <v>10</v>
+      </c>
+      <c r="H76" s="11">
         <v>16.400000000000002</v>
       </c>
-      <c r="I76" s="8">
-        <v>24.399999999999977</v>
+      <c r="I76" s="15">
+        <v>56</v>
       </c>
       <c r="J76" t="s">
         <v>164</v>
@@ -9067,7 +9100,7 @@
         <v>361</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77">
         <v>18</v>
@@ -9076,19 +9109,19 @@
         <v>250</v>
       </c>
       <c r="E77" s="11">
-        <v>14.800000000000006</v>
+        <v>6</v>
       </c>
       <c r="F77" s="8">
         <v>84</v>
       </c>
-      <c r="G77" s="8">
-        <v>5</v>
-      </c>
-      <c r="H77" s="8">
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77" s="11">
         <v>16.8</v>
       </c>
-      <c r="I77" s="8">
-        <v>24.799999999999976</v>
+      <c r="I77" s="15">
+        <v>57</v>
       </c>
       <c r="J77" t="s">
         <v>164</v>
@@ -9099,7 +9132,7 @@
         <v>362</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>19</v>
@@ -9108,19 +9141,19 @@
         <v>260</v>
       </c>
       <c r="E78" s="11">
-        <v>15.200000000000006</v>
+        <v>6</v>
       </c>
       <c r="F78" s="8">
         <v>86</v>
       </c>
-      <c r="G78" s="8">
-        <v>5</v>
-      </c>
-      <c r="H78" s="8">
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78" s="11">
         <v>17.2</v>
       </c>
-      <c r="I78" s="8">
-        <v>25.199999999999974</v>
+      <c r="I78" s="15">
+        <v>58</v>
       </c>
       <c r="J78" t="s">
         <v>164</v>
@@ -9131,7 +9164,7 @@
         <v>363</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79">
         <v>20</v>
@@ -9140,19 +9173,19 @@
         <v>270</v>
       </c>
       <c r="E79" s="11">
-        <v>15.600000000000007</v>
+        <v>6</v>
       </c>
       <c r="F79" s="8">
         <v>88</v>
       </c>
-      <c r="G79" s="8">
-        <v>5</v>
-      </c>
-      <c r="H79" s="8">
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79" s="11">
         <v>17.599999999999998</v>
       </c>
-      <c r="I79" s="8">
-        <v>25.599999999999973</v>
+      <c r="I79" s="15">
+        <v>59</v>
       </c>
       <c r="J79" t="s">
         <v>164</v>
@@ -9163,7 +9196,7 @@
         <v>364</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80">
         <v>21</v>
@@ -9172,19 +9205,19 @@
         <v>280</v>
       </c>
       <c r="E80" s="11">
-        <v>16.000000000000007</v>
+        <v>6</v>
       </c>
       <c r="F80" s="8">
         <v>90</v>
       </c>
-      <c r="G80" s="8">
-        <v>5</v>
-      </c>
-      <c r="H80" s="8">
+      <c r="G80">
+        <v>10</v>
+      </c>
+      <c r="H80" s="11">
         <v>17.999999999999996</v>
       </c>
-      <c r="I80" s="8">
-        <v>25.999999999999972</v>
+      <c r="I80" s="15">
+        <v>60</v>
       </c>
       <c r="J80" t="s">
         <v>164</v>
@@ -9195,7 +9228,7 @@
         <v>365</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81">
         <v>22</v>
@@ -9204,19 +9237,19 @@
         <v>290</v>
       </c>
       <c r="E81" s="11">
-        <v>16.400000000000006</v>
+        <v>6</v>
       </c>
       <c r="F81" s="8">
         <v>92</v>
       </c>
-      <c r="G81" s="8">
-        <v>5</v>
-      </c>
-      <c r="H81" s="8">
+      <c r="G81">
+        <v>10</v>
+      </c>
+      <c r="H81" s="11">
         <v>18.399999999999995</v>
       </c>
-      <c r="I81" s="8">
-        <v>26.39999999999997</v>
+      <c r="I81" s="15">
+        <v>61</v>
       </c>
       <c r="J81" t="s">
         <v>164</v>
@@ -9227,7 +9260,7 @@
         <v>366</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82">
         <v>23</v>
@@ -9236,19 +9269,19 @@
         <v>300</v>
       </c>
       <c r="E82" s="11">
-        <v>16.800000000000004</v>
+        <v>6</v>
       </c>
       <c r="F82" s="8">
         <v>94</v>
       </c>
-      <c r="G82" s="8">
-        <v>5</v>
-      </c>
-      <c r="H82" s="8">
+      <c r="G82">
+        <v>10</v>
+      </c>
+      <c r="H82" s="11">
         <v>18.799999999999994</v>
       </c>
-      <c r="I82" s="8">
-        <v>26.799999999999969</v>
+      <c r="I82" s="15">
+        <v>62</v>
       </c>
       <c r="J82" t="s">
         <v>164</v>
@@ -9259,7 +9292,7 @@
         <v>367</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83">
         <v>24</v>
@@ -9268,26 +9301,26 @@
         <v>310</v>
       </c>
       <c r="E83" s="11">
-        <v>17.200000000000003</v>
+        <v>6</v>
       </c>
       <c r="F83" s="8">
         <v>96</v>
       </c>
-      <c r="G83" s="8">
-        <v>5</v>
-      </c>
-      <c r="H83" s="8">
+      <c r="G83">
+        <v>10</v>
+      </c>
+      <c r="H83" s="11">
         <v>19.199999999999992</v>
       </c>
-      <c r="I83" s="8">
-        <v>27.199999999999967</v>
+      <c r="I83" s="15">
+        <v>63</v>
       </c>
       <c r="J83" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9369,7 +9402,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9603,7 +9636,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9704,7 +9737,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>